--- a/capiq_data/in_process_data/IQ258589.xlsx
+++ b/capiq_data/in_process_data/IQ258589.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1055408-946E-4C20-8D85-19F36F9B0F81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4660171A-7111-449F-B1D3-2A0A4ECA2873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"49bf4e50-4b9b-4bea-9f40-3738ea0567b6"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e86ef96d-5597-4d20-b674-f9c2b9b956ca"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
   </si>
   <si>
     <t>FQ32011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>139.30000000000001</v>
+        <v>34.953000000000003</v>
       </c>
       <c r="D2">
-        <v>966.4</v>
+        <v>629.577</v>
       </c>
       <c r="E2">
-        <v>868.9</v>
+        <v>386.90800000000002</v>
       </c>
       <c r="F2">
-        <v>353</v>
+        <v>208.053</v>
       </c>
       <c r="G2">
-        <v>2844.8</v>
+        <v>1158.8040000000001</v>
       </c>
       <c r="H2">
-        <v>8257.7999999999993</v>
+        <v>2465.79</v>
       </c>
       <c r="I2">
-        <v>334.8</v>
+        <v>163.19499999999999</v>
       </c>
       <c r="J2">
-        <v>3150.1</v>
+        <v>1123.9290000000001</v>
       </c>
       <c r="K2">
-        <v>355.8</v>
+        <v>121</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1515.3</v>
+        <v>612.13</v>
       </c>
       <c r="O2">
-        <v>5538.8</v>
+        <v>1882.9190000000001</v>
       </c>
       <c r="P2">
-        <v>3743.7</v>
+        <v>1282.473</v>
       </c>
       <c r="Q2">
-        <v>2.1</v>
+        <v>-2.2789999999999999</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2719</v>
+        <v>582.87099999999998</v>
       </c>
       <c r="U2">
-        <v>16</v>
+        <v>1.871</v>
       </c>
       <c r="V2">
-        <v>63.3</v>
+        <v>-61.881999999999998</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-49</v>
+        <v>79.893000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,42 +931,42 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>139.30000000000001</v>
+        <v>34.953000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>279.8</v>
+        <v>18.376999999999999</v>
       </c>
       <c r="D3">
-        <v>715.3</v>
+        <v>544.03800000000001</v>
       </c>
       <c r="E3">
-        <v>417.4</v>
+        <v>314.262</v>
       </c>
       <c r="F3">
-        <v>254.9</v>
+        <v>164.89</v>
       </c>
       <c r="G3">
-        <v>2083</v>
+        <v>1190.989</v>
       </c>
       <c r="H3">
-        <v>7167.6</v>
+        <v>2512.1689999999999</v>
       </c>
       <c r="I3">
-        <v>129.19999999999999</v>
+        <v>114.79300000000001</v>
       </c>
       <c r="J3">
-        <v>3136.7</v>
+        <v>1307.4369999999999</v>
       </c>
       <c r="K3">
-        <v>83.7</v>
+        <v>4.1840000000000002</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,37 +975,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>662.9</v>
+        <v>427.16</v>
       </c>
       <c r="O3">
-        <v>4615.7</v>
+        <v>1895.9010000000001</v>
       </c>
       <c r="P3">
-        <v>3242.4</v>
+        <v>1365.797</v>
       </c>
       <c r="Q3">
-        <v>-6.8</v>
+        <v>143.80099999999999</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="S3">
-        <v>4300</v>
+        <v>4990</v>
       </c>
       <c r="T3">
-        <v>2551.9</v>
+        <v>616.26800000000003</v>
       </c>
       <c r="U3">
-        <v>9.1999999999999993</v>
+        <v>145.672</v>
       </c>
       <c r="V3">
-        <v>250.3</v>
+        <v>87.683999999999997</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-472.7</v>
+        <v>84.048000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,81 +1014,81 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>279.8</v>
+        <v>18.376999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>74.5</v>
+        <v>23.843</v>
       </c>
       <c r="D4">
-        <v>635.29999999999995</v>
+        <v>598.43200000000002</v>
       </c>
       <c r="E4">
-        <v>459.3</v>
+        <v>374.39800000000002</v>
       </c>
       <c r="F4">
-        <v>251.2</v>
+        <v>155.88999999999999</v>
       </c>
       <c r="G4">
-        <v>1956.1</v>
+        <v>1199.3320000000001</v>
       </c>
       <c r="H4">
-        <v>7075.4</v>
+        <v>2739.6930000000002</v>
       </c>
       <c r="I4">
-        <v>104.8</v>
+        <v>154.39400000000001</v>
       </c>
       <c r="J4">
-        <v>2728.9</v>
+        <v>1294.116</v>
       </c>
       <c r="K4">
-        <v>252.7</v>
+        <v>24.902999999999999</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-417.3</v>
+        <v>-1.974</v>
       </c>
       <c r="N4">
-        <v>783.4</v>
+        <v>504.62299999999999</v>
       </c>
       <c r="O4">
-        <v>4360.3</v>
+        <v>1958.7460000000001</v>
       </c>
       <c r="P4">
-        <v>3001.6</v>
+        <v>1392.0150000000001</v>
       </c>
       <c r="Q4">
-        <v>4.2</v>
+        <v>-141.93299999999999</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2715.1</v>
+        <v>780.947</v>
       </c>
       <c r="U4">
-        <v>13.4</v>
+        <v>3.7389999999999999</v>
       </c>
       <c r="V4">
-        <v>241.3</v>
+        <v>34.597000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-204.6</v>
+        <v>162.84899999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>74.5</v>
+        <v>23.843</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>162.69999999999999</v>
+        <v>35.933999999999997</v>
       </c>
       <c r="D5">
-        <v>690.2</v>
+        <v>689.12699999999995</v>
       </c>
       <c r="E5">
-        <v>501.7</v>
+        <v>406.92899999999997</v>
       </c>
       <c r="F5">
-        <v>283.10000000000002</v>
+        <v>183.285</v>
       </c>
       <c r="G5">
-        <v>1919.6</v>
+        <v>1253.8009999999999</v>
       </c>
       <c r="H5">
-        <v>7034.7</v>
+        <v>2906.7109999999998</v>
       </c>
       <c r="I5">
-        <v>138.69999999999999</v>
+        <v>149.48099999999999</v>
       </c>
       <c r="J5">
-        <v>2763.6</v>
+        <v>1284.1199999999999</v>
       </c>
       <c r="K5">
-        <v>198</v>
+        <v>88.991</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>786.8</v>
+        <v>616.77499999999998</v>
       </c>
       <c r="O5">
-        <v>4335.6000000000004</v>
+        <v>2066.654</v>
       </c>
       <c r="P5">
-        <v>2987.9</v>
+        <v>1448.9649999999999</v>
       </c>
       <c r="Q5">
-        <v>-3.4</v>
+        <v>3.0289999999999999</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2699.1</v>
+        <v>840.05700000000002</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>6.7679999999999998</v>
       </c>
       <c r="V5">
-        <v>276.10000000000002</v>
+        <v>71.385000000000005</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-239.7</v>
+        <v>63.226999999999997</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-5.5</v>
       </c>
       <c r="AA5">
-        <v>162.69999999999999</v>
+        <v>35.933999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>104.8</v>
+        <v>49.643000000000001</v>
       </c>
       <c r="D6">
-        <v>700.7</v>
+        <v>701.85400000000004</v>
       </c>
       <c r="E6">
-        <v>569.20000000000005</v>
+        <v>473.83499999999998</v>
       </c>
       <c r="F6">
-        <v>283.7</v>
+        <v>193.114</v>
       </c>
       <c r="G6">
-        <v>2178.5</v>
+        <v>1387.3530000000001</v>
       </c>
       <c r="H6">
-        <v>7225.2</v>
+        <v>3127.491</v>
       </c>
       <c r="I6">
-        <v>270.60000000000002</v>
+        <v>217.55</v>
       </c>
       <c r="J6">
-        <v>2608.1</v>
+        <v>1259.088</v>
       </c>
       <c r="K6">
-        <v>352.3</v>
+        <v>159.49299999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1224,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1178.2</v>
+        <v>797.54100000000005</v>
       </c>
       <c r="O6">
-        <v>4587.2</v>
+        <v>2222.21</v>
       </c>
       <c r="P6">
-        <v>3147.4</v>
+        <v>1498.62</v>
       </c>
       <c r="Q6">
-        <v>45.8</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2638</v>
+        <v>905.28099999999995</v>
       </c>
       <c r="U6">
-        <v>55.8</v>
+        <v>9.4540000000000006</v>
       </c>
       <c r="V6">
-        <v>123.4</v>
+        <v>17.692</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-30.7</v>
+        <v>76.218000000000004</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>20.2</v>
+        <v>-71.781999999999996</v>
       </c>
       <c r="AA6">
-        <v>104.8</v>
+        <v>49.643000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>103</v>
+        <v>27.001000000000001</v>
       </c>
       <c r="D7">
-        <v>628.1</v>
+        <v>617.34500000000003</v>
       </c>
       <c r="E7">
-        <v>437.6</v>
+        <v>383.92200000000003</v>
       </c>
       <c r="F7">
-        <v>246</v>
+        <v>162.87100000000001</v>
       </c>
       <c r="G7">
-        <v>2034.3</v>
+        <v>1231.248</v>
       </c>
       <c r="H7">
-        <v>7109.9</v>
+        <v>3069.3850000000002</v>
       </c>
       <c r="I7">
-        <v>130.5</v>
+        <v>153.43299999999999</v>
       </c>
       <c r="J7">
-        <v>2452.1</v>
+        <v>1293.183</v>
       </c>
       <c r="K7">
-        <v>377.9</v>
+        <v>54.774999999999999</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,120 +1307,120 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1199.5999999999999</v>
+        <v>595.21</v>
       </c>
       <c r="O7">
-        <v>4433.8999999999996</v>
+        <v>2113.6489999999999</v>
       </c>
       <c r="P7">
-        <v>3175.2</v>
+        <v>1429.567</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>-0.49299999999999999</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="S7">
-        <v>4400</v>
+        <v>5080</v>
       </c>
       <c r="T7">
-        <v>2676</v>
+        <v>955.73599999999999</v>
       </c>
       <c r="U7">
-        <v>85.8</v>
+        <v>8.9610000000000003</v>
       </c>
       <c r="V7">
-        <v>143.30000000000001</v>
+        <v>89.625</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-100.1</v>
+        <v>-65.379000000000005</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>103</v>
+        <v>27.001000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>72</v>
+        <v>37.369</v>
       </c>
       <c r="D8">
-        <v>634.79999999999995</v>
+        <v>650.39300000000003</v>
       </c>
       <c r="E8">
-        <v>457.8</v>
+        <v>420.85300000000001</v>
       </c>
       <c r="F8">
-        <v>251.4</v>
+        <v>176.726</v>
       </c>
       <c r="G8">
-        <v>1971.4</v>
+        <v>1260.0440000000001</v>
       </c>
       <c r="H8">
-        <v>7008.2</v>
+        <v>3096.4340000000002</v>
       </c>
       <c r="I8">
-        <v>117.2</v>
+        <v>155.46899999999999</v>
       </c>
       <c r="J8">
-        <v>3316.8</v>
+        <v>1279.183</v>
       </c>
       <c r="K8">
-        <v>97.9</v>
+        <v>32.335000000000001</v>
       </c>
       <c r="L8">
-        <v>-274.39999999999998</v>
+        <v>-22.56</v>
       </c>
       <c r="M8">
-        <v>-832.2</v>
+        <v>-18.957000000000001</v>
       </c>
       <c r="N8">
-        <v>587.9</v>
+        <v>598.89700000000005</v>
       </c>
       <c r="O8">
-        <v>4708.3999999999996</v>
+        <v>2087.3429999999998</v>
       </c>
       <c r="P8">
-        <v>3470.5</v>
+        <v>1395.5709999999999</v>
       </c>
       <c r="Q8">
-        <v>-16.7</v>
+        <v>-2.3969999999999998</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2299.8000000000002</v>
+        <v>1009.091</v>
       </c>
       <c r="U8">
-        <v>69.099999999999994</v>
+        <v>6.5640000000000001</v>
       </c>
       <c r="V8">
-        <v>96.4</v>
+        <v>42.350999999999999</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-97.9</v>
+        <v>-32.704999999999998</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>72</v>
+        <v>37.369</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>37499</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>124.6</v>
+        <v>49.572000000000003</v>
       </c>
       <c r="D9">
-        <v>698.5</v>
+        <v>689.80600000000004</v>
       </c>
       <c r="E9">
-        <v>487.1</v>
+        <v>435.55</v>
       </c>
       <c r="F9">
-        <v>286.60000000000002</v>
+        <v>193.262</v>
       </c>
       <c r="G9">
-        <v>2177.9</v>
+        <v>1313.9870000000001</v>
       </c>
       <c r="H9">
-        <v>8040.5</v>
+        <v>3182.692</v>
       </c>
       <c r="I9">
-        <v>185.6</v>
+        <v>160.291</v>
       </c>
       <c r="J9">
-        <v>3966.9</v>
+        <v>1285.575</v>
       </c>
       <c r="K9">
-        <v>15.2</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>656</v>
+        <v>605.779</v>
       </c>
       <c r="O9">
-        <v>5422.4</v>
+        <v>2104.4180000000001</v>
       </c>
       <c r="P9">
-        <v>4045.2</v>
+        <v>1367.5429999999999</v>
       </c>
       <c r="Q9">
-        <v>109.4</v>
+        <v>18.451000000000001</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>37499</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2618.1</v>
+        <v>1078.2739999999999</v>
       </c>
       <c r="U9">
-        <v>178.5</v>
+        <v>25.015000000000001</v>
       </c>
       <c r="V9">
-        <v>272.10000000000002</v>
+        <v>71.215000000000003</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>8</v>
+        <v>-31.533000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>124.6</v>
+        <v>49.572000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>37590</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>109.5</v>
+        <v>64.343999999999994</v>
       </c>
       <c r="D10">
-        <v>766.9</v>
+        <v>738.37900000000002</v>
       </c>
       <c r="E10">
-        <v>539.1</v>
+        <v>479.66199999999998</v>
       </c>
       <c r="F10">
-        <v>314.2</v>
+        <v>213.494</v>
       </c>
       <c r="G10">
-        <v>2480.6</v>
+        <v>1465.912</v>
       </c>
       <c r="H10">
-        <v>8322.7000000000007</v>
+        <v>3340.4029999999998</v>
       </c>
       <c r="I10">
-        <v>300.39999999999998</v>
+        <v>217.715</v>
       </c>
       <c r="J10">
-        <v>3965.3</v>
+        <v>1265.5740000000001</v>
       </c>
       <c r="K10">
-        <v>16.600000000000001</v>
+        <v>5.1980000000000004</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>787.8</v>
+        <v>711.44899999999996</v>
       </c>
       <c r="O10">
-        <v>5547.4</v>
+        <v>2192.4870000000001</v>
       </c>
       <c r="P10">
-        <v>4051.3</v>
+        <v>1354.11</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>4.9210000000000003</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>37590</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2775.3</v>
+        <v>1147.9159999999999</v>
       </c>
       <c r="U10">
-        <v>200.5</v>
+        <v>29.936</v>
       </c>
       <c r="V10">
-        <v>20.5</v>
+        <v>33.698</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>17.899999999999999</v>
+        <v>-10.862</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,42 +1595,42 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>109.5</v>
+        <v>64.343999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>81.7</v>
+        <v>52.021000000000001</v>
       </c>
       <c r="D11">
-        <v>695.9</v>
+        <v>653.03399999999999</v>
       </c>
       <c r="E11">
-        <v>471.9</v>
+        <v>399.09500000000003</v>
       </c>
       <c r="F11">
-        <v>263.89999999999998</v>
+        <v>177.233</v>
       </c>
       <c r="G11">
-        <v>2471.1999999999998</v>
+        <v>1330.1010000000001</v>
       </c>
       <c r="H11">
-        <v>7638.1</v>
+        <v>3196.33</v>
       </c>
       <c r="I11">
-        <v>209</v>
+        <v>171.07300000000001</v>
       </c>
       <c r="J11">
-        <v>3308.5</v>
+        <v>1191.6310000000001</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.6230000000000002</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>677.9</v>
+        <v>585.20799999999997</v>
       </c>
       <c r="O11">
-        <v>4777.8</v>
+        <v>2021.346</v>
       </c>
       <c r="P11">
-        <v>3352.5</v>
+        <v>1265.518</v>
       </c>
       <c r="Q11">
-        <v>131</v>
+        <v>-16.126000000000001</v>
       </c>
       <c r="R11">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="S11">
-        <v>4500</v>
+        <v>7680</v>
       </c>
       <c r="T11">
-        <v>2860.3</v>
+        <v>1174.9839999999999</v>
       </c>
       <c r="U11">
-        <v>331.5</v>
+        <v>13.81</v>
       </c>
       <c r="V11">
-        <v>167.3</v>
+        <v>88.789000000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-26.7</v>
+        <v>-86.384</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,81 +1678,81 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>81.7</v>
+        <v>52.021000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>37772</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>52.9</v>
+        <v>39.189</v>
       </c>
       <c r="D12">
-        <v>673.4</v>
+        <v>772.80200000000002</v>
       </c>
       <c r="E12">
-        <v>453.8</v>
+        <v>566.34799999999996</v>
       </c>
       <c r="F12">
-        <v>257.60000000000002</v>
+        <v>209.08500000000001</v>
       </c>
       <c r="G12">
-        <v>2723.3</v>
+        <v>2050.2370000000001</v>
       </c>
       <c r="H12">
-        <v>9452.4</v>
+        <v>5358.9560000000001</v>
       </c>
       <c r="I12">
-        <v>150</v>
+        <v>279.87700000000001</v>
       </c>
       <c r="J12">
-        <v>4840.5</v>
+        <v>2293.5479999999998</v>
       </c>
       <c r="K12">
-        <v>221</v>
+        <v>16.262</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-4.9000000000000004</v>
+        <v>-492.70100000000002</v>
       </c>
       <c r="N12">
-        <v>797.2</v>
+        <v>1220.191</v>
       </c>
       <c r="O12">
-        <v>6455</v>
+        <v>3919.2939999999999</v>
       </c>
       <c r="P12">
-        <v>5114.5</v>
+        <v>2778.3850000000002</v>
       </c>
       <c r="Q12">
-        <v>277.8</v>
+        <v>32.198</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>37772</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2997.4</v>
+        <v>1439.662</v>
       </c>
       <c r="U12">
-        <v>609.29999999999995</v>
+        <v>46.008000000000003</v>
       </c>
       <c r="V12">
-        <v>3.3</v>
+        <v>-6.3630000000000004</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>295.5</v>
+        <v>1098.058</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>52.9</v>
+        <v>39.189</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>37864</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1522</v>
+        <v>35.564</v>
       </c>
       <c r="D13">
-        <v>1459.8</v>
+        <v>911.06399999999996</v>
       </c>
       <c r="E13">
-        <v>655.9</v>
+        <v>615.47</v>
       </c>
       <c r="F13">
-        <v>588.6</v>
+        <v>257.33199999999999</v>
       </c>
       <c r="G13">
-        <v>2670.1</v>
+        <v>1970.1679999999999</v>
       </c>
       <c r="H13">
-        <v>14122.8</v>
+        <v>5198.6899999999996</v>
       </c>
       <c r="I13">
-        <v>341.2</v>
+        <v>255.84</v>
       </c>
       <c r="J13">
-        <v>6932.1</v>
+        <v>2146.9279999999999</v>
       </c>
       <c r="K13">
-        <v>272.10000000000002</v>
+        <v>35.091999999999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1810.6</v>
+        <v>854.08199999999999</v>
       </c>
       <c r="O13">
-        <v>9612.4</v>
+        <v>3303.962</v>
       </c>
       <c r="P13">
-        <v>7339.7</v>
+        <v>2264.0169999999998</v>
       </c>
       <c r="Q13">
-        <v>-492.5</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>37864</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4510.3999999999996</v>
+        <v>1894.7280000000001</v>
       </c>
       <c r="U13">
-        <v>116.8</v>
+        <v>47.465000000000003</v>
       </c>
       <c r="V13">
-        <v>485.7</v>
+        <v>94.778000000000006</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>3725.3</v>
+        <v>-77.409000000000006</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="AA13">
-        <v>1522</v>
+        <v>35.564</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41608</v>
+        <v>37955</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>211</v>
+        <v>82.84</v>
       </c>
       <c r="D14">
-        <v>1443.3</v>
+        <v>987.24800000000005</v>
       </c>
       <c r="E14">
-        <v>668.8</v>
+        <v>768.096</v>
       </c>
       <c r="F14">
-        <v>611.9</v>
+        <v>282.61599999999999</v>
       </c>
       <c r="G14">
-        <v>2835.4</v>
+        <v>2216.3960000000002</v>
       </c>
       <c r="H14">
-        <v>14336.3</v>
+        <v>5624.28</v>
       </c>
       <c r="I14">
-        <v>462.4</v>
+        <v>340.07</v>
       </c>
       <c r="J14">
-        <v>6917.9</v>
+        <v>1970.819</v>
       </c>
       <c r="K14">
-        <v>170.5</v>
+        <v>168.041</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,81 +1888,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1755</v>
+        <v>1113.3240000000001</v>
       </c>
       <c r="O14">
-        <v>9546.5</v>
+        <v>3419.3429999999998</v>
       </c>
       <c r="P14">
-        <v>7175.7</v>
+        <v>2204.6930000000002</v>
       </c>
       <c r="Q14">
-        <v>-51.6</v>
+        <v>-9.09</v>
       </c>
       <c r="R14">
-        <v>41608</v>
+        <v>37955</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>4789.8</v>
+        <v>2204.9369999999999</v>
       </c>
       <c r="U14">
-        <v>65.2</v>
+        <v>38.375</v>
       </c>
       <c r="V14">
-        <v>140.1</v>
+        <v>91.106999999999999</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-155.69999999999999</v>
+        <v>-78.334999999999994</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AA14">
-        <v>211</v>
+        <v>82.84</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>38046</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>157.19999999999999</v>
+        <v>62.820999999999998</v>
       </c>
       <c r="D15">
-        <v>1291.2</v>
+        <v>881.31500000000005</v>
       </c>
       <c r="E15">
-        <v>626.20000000000005</v>
+        <v>635.91</v>
       </c>
       <c r="F15">
-        <v>549.6</v>
+        <v>266.05500000000001</v>
       </c>
       <c r="G15">
-        <v>2747.2</v>
+        <v>2071.471</v>
       </c>
       <c r="H15">
-        <v>14302.1</v>
+        <v>5558.6729999999998</v>
       </c>
       <c r="I15">
-        <v>295.2</v>
+        <v>270.291</v>
       </c>
       <c r="J15">
-        <v>6389.5</v>
+        <v>1778.8530000000001</v>
       </c>
       <c r="K15">
-        <v>57.2</v>
+        <v>1.792</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,120 +1971,120 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2025.7</v>
+        <v>1029.8019999999999</v>
       </c>
       <c r="O15">
-        <v>9320.7999999999993</v>
+        <v>3181.0540000000001</v>
       </c>
       <c r="P15">
-        <v>7053.4</v>
+        <v>2047.89</v>
       </c>
       <c r="Q15">
-        <v>-1.3</v>
+        <v>-1.2390000000000001</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>38046</v>
       </c>
       <c r="S15">
-        <v>6300</v>
+        <v>7800</v>
       </c>
       <c r="T15">
-        <v>4981.3</v>
+        <v>2377.6190000000001</v>
       </c>
       <c r="U15">
-        <v>63.9</v>
+        <v>37.136000000000003</v>
       </c>
       <c r="V15">
-        <v>197.1</v>
+        <v>160.785</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>-3.2949999999999999</v>
       </c>
       <c r="X15">
-        <v>-88.1</v>
+        <v>-197.16</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AA15">
-        <v>157.19999999999999</v>
+        <v>62.820999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41790</v>
+        <v>38138</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>206.7</v>
+        <v>51.329000000000001</v>
       </c>
       <c r="D16">
-        <v>1526</v>
+        <v>927.30499999999995</v>
       </c>
       <c r="E16">
-        <v>651.29999999999995</v>
+        <v>711.84699999999998</v>
       </c>
       <c r="F16">
-        <v>678</v>
+        <v>250.46199999999999</v>
       </c>
       <c r="G16">
-        <v>3137.2</v>
+        <v>2180.2350000000001</v>
       </c>
       <c r="H16">
-        <v>14842.4</v>
+        <v>5549.0739999999996</v>
       </c>
       <c r="I16">
-        <v>345.7</v>
+        <v>361.50599999999997</v>
       </c>
       <c r="J16">
-        <v>6358.9</v>
+        <v>1736.1590000000001</v>
       </c>
       <c r="K16">
-        <v>235.2</v>
+        <v>243.55199999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-4.8</v>
+        <v>-217.20400000000001</v>
       </c>
       <c r="N16">
-        <v>2254.6999999999998</v>
+        <v>1167.3409999999999</v>
       </c>
       <c r="O16">
-        <v>9555.4</v>
+        <v>3238.3910000000001</v>
       </c>
       <c r="P16">
-        <v>7208.5</v>
+        <v>2088.6379999999999</v>
       </c>
       <c r="Q16">
-        <v>314.10000000000002</v>
+        <v>-25.693000000000001</v>
       </c>
       <c r="R16">
-        <v>41790</v>
+        <v>38138</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>5287</v>
+        <v>2310.683</v>
       </c>
       <c r="U16">
-        <v>378</v>
+        <v>11.443</v>
       </c>
       <c r="V16">
-        <v>232.3</v>
+        <v>-46.457999999999998</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-2.4510000000000001</v>
       </c>
       <c r="X16">
-        <v>213.1</v>
+        <v>52.051000000000002</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>206.7</v>
+        <v>51.329000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>38230</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>195.8</v>
+        <v>80.614000000000004</v>
       </c>
       <c r="D17">
-        <v>1604.1</v>
+        <v>1036.941</v>
       </c>
       <c r="E17">
-        <v>656.9</v>
+        <v>789.08100000000002</v>
       </c>
       <c r="F17">
-        <v>694.3</v>
+        <v>289.68299999999999</v>
       </c>
       <c r="G17">
-        <v>2838.1</v>
+        <v>2294.596</v>
       </c>
       <c r="H17">
-        <v>14657.4</v>
+        <v>5655.65</v>
       </c>
       <c r="I17">
-        <v>441.9</v>
+        <v>403.07299999999998</v>
       </c>
       <c r="J17">
-        <v>6333</v>
+        <v>1720.588</v>
       </c>
       <c r="K17">
-        <v>253</v>
+        <v>193.596</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1876.3</v>
+        <v>1203.268</v>
       </c>
       <c r="O17">
-        <v>9170</v>
+        <v>3274.4810000000002</v>
       </c>
       <c r="P17">
-        <v>7201.7</v>
+        <v>1993.527</v>
       </c>
       <c r="Q17">
-        <v>-273.7</v>
+        <v>-1.675</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>38230</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>5487.4</v>
+        <v>2381.1689999999999</v>
       </c>
       <c r="U17">
-        <v>104.3</v>
+        <v>9.7680000000000007</v>
       </c>
       <c r="V17">
-        <v>435.8</v>
+        <v>100.608</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-2.4510000000000001</v>
       </c>
       <c r="X17">
-        <v>-538.1</v>
+        <v>-80.275000000000006</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>195.8</v>
+        <v>80.614000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41973</v>
+        <v>38321</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>222.2</v>
+        <v>96.893000000000001</v>
       </c>
       <c r="D18">
-        <v>1541.7</v>
+        <v>1085.711</v>
       </c>
       <c r="E18">
-        <v>701.3</v>
+        <v>906.31700000000001</v>
       </c>
       <c r="F18">
-        <v>670.6</v>
+        <v>313.66399999999999</v>
       </c>
       <c r="G18">
-        <v>3030.8</v>
+        <v>2548.127</v>
       </c>
       <c r="H18">
-        <v>14980.5</v>
+        <v>6079.884</v>
       </c>
       <c r="I18">
-        <v>445.9</v>
+        <v>383.416</v>
       </c>
       <c r="J18">
-        <v>7089.1</v>
+        <v>1716.6849999999999</v>
       </c>
       <c r="K18">
-        <v>100.3</v>
+        <v>226.05799999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1248.5</v>
+        <v>1327.5730000000001</v>
       </c>
       <c r="O18">
-        <v>9345.5</v>
+        <v>3410.6410000000001</v>
       </c>
       <c r="P18">
-        <v>7326.4</v>
+        <v>2028.5809999999999</v>
       </c>
       <c r="Q18">
-        <v>-37</v>
+        <v>2.9860000000000002</v>
       </c>
       <c r="R18">
-        <v>41973</v>
+        <v>38321</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>5635</v>
+        <v>2669.2429999999999</v>
       </c>
       <c r="U18">
-        <v>67.3</v>
+        <v>12.754</v>
       </c>
       <c r="V18">
-        <v>82</v>
+        <v>27.271999999999998</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-2.4510000000000001</v>
       </c>
       <c r="X18">
-        <v>135.5</v>
+        <v>13.015000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,42 +2259,42 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>222.2</v>
+        <v>96.893000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42063</v>
+        <v>38411</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>214.6</v>
+        <v>47.628</v>
       </c>
       <c r="D19">
-        <v>1356.2</v>
+        <v>1037.681</v>
       </c>
       <c r="E19">
-        <v>598.9</v>
+        <v>849.64200000000005</v>
       </c>
       <c r="F19">
-        <v>535.70000000000005</v>
+        <v>286.77999999999997</v>
       </c>
       <c r="G19">
-        <v>2910.8</v>
+        <v>2734.0349999999999</v>
       </c>
       <c r="H19">
-        <v>15093</v>
+        <v>7804.1719999999996</v>
       </c>
       <c r="I19">
-        <v>285.8</v>
+        <v>345.25400000000002</v>
       </c>
       <c r="J19">
-        <v>7090.9</v>
+        <v>3204.7069999999999</v>
       </c>
       <c r="K19">
-        <v>52.4</v>
+        <v>16.475000000000001</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,164 +2303,164 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1130.7</v>
+        <v>1138.087</v>
       </c>
       <c r="O19">
-        <v>9211.7000000000007</v>
+        <v>5024.259</v>
       </c>
       <c r="P19">
-        <v>7319.7</v>
+        <v>3289.2759999999998</v>
       </c>
       <c r="Q19">
-        <v>42.8</v>
+        <v>4.8810000000000002</v>
       </c>
       <c r="R19">
-        <v>42063</v>
+        <v>38411</v>
       </c>
       <c r="S19">
-        <v>7200</v>
+        <v>7700</v>
       </c>
       <c r="T19">
-        <v>5881.3</v>
+        <v>2779.913</v>
       </c>
       <c r="U19">
-        <v>110.1</v>
+        <v>17.635000000000002</v>
       </c>
       <c r="V19">
-        <v>330.9</v>
+        <v>239.27799999999999</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-2.4510000000000001</v>
       </c>
       <c r="X19">
-        <v>173.1</v>
+        <v>899.38900000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-61.878</v>
       </c>
       <c r="AA19">
-        <v>214.6</v>
+        <v>47.628</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38503</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>238.6</v>
+        <v>75.7</v>
       </c>
       <c r="D20">
-        <v>1631.3</v>
+        <v>1096.5</v>
       </c>
       <c r="E20">
-        <v>696.2</v>
+        <v>822.22299999999996</v>
       </c>
       <c r="F20">
-        <v>745.7</v>
+        <v>308</v>
       </c>
       <c r="G20">
-        <v>2979.3</v>
+        <v>2719.1379999999999</v>
       </c>
       <c r="H20">
-        <v>15247.3</v>
+        <v>7501.4440000000004</v>
       </c>
       <c r="I20">
-        <v>289.10000000000002</v>
+        <v>387.17700000000002</v>
       </c>
       <c r="J20">
-        <v>7040.8</v>
+        <v>2968.7919999999999</v>
       </c>
       <c r="K20">
-        <v>100.9</v>
+        <v>62.606999999999999</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-79.400000000000006</v>
+        <v>-219.5</v>
       </c>
       <c r="N20">
-        <v>1120.3</v>
+        <v>1133.83</v>
       </c>
       <c r="O20">
-        <v>9195.4</v>
+        <v>4759.2340000000004</v>
       </c>
       <c r="P20">
-        <v>7338.6</v>
+        <v>3099.2869999999998</v>
       </c>
       <c r="Q20">
-        <v>20.6</v>
+        <v>1.6</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38503</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>6051.9</v>
+        <v>2742.21</v>
       </c>
       <c r="U20">
-        <v>130.69999999999999</v>
+        <v>19.184000000000001</v>
       </c>
       <c r="V20">
-        <v>205.7</v>
+        <v>60</v>
       </c>
       <c r="W20">
-        <v>-59.8</v>
+        <v>-2.5</v>
       </c>
       <c r="X20">
-        <v>-53.4</v>
+        <v>-167</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="AA20">
-        <v>238.6</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>302.39999999999998</v>
+        <v>82.4</v>
       </c>
       <c r="D21">
-        <v>1733.4</v>
+        <v>1192</v>
       </c>
       <c r="E21">
-        <v>723.5</v>
+        <v>890.63900000000001</v>
       </c>
       <c r="F21">
-        <v>790.3</v>
+        <v>348</v>
       </c>
       <c r="G21">
-        <v>3131.5</v>
+        <v>2734.5059999999999</v>
       </c>
       <c r="H21">
-        <v>15673.4</v>
+        <v>7463.3729999999996</v>
       </c>
       <c r="I21">
-        <v>373.3</v>
+        <v>362.084</v>
       </c>
       <c r="J21">
-        <v>7238.2</v>
+        <v>2704.4670000000001</v>
       </c>
       <c r="K21">
-        <v>29.3</v>
+        <v>71.509</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1212.2</v>
+        <v>1306.9380000000001</v>
       </c>
       <c r="O21">
-        <v>9508.4</v>
+        <v>4629.3540000000003</v>
       </c>
       <c r="P21">
-        <v>7441.3</v>
+        <v>2989.3339999999998</v>
       </c>
       <c r="Q21">
-        <v>199</v>
+        <v>-0.6</v>
       </c>
       <c r="R21">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>6165</v>
+        <v>2834.0189999999998</v>
       </c>
       <c r="U21">
-        <v>329.7</v>
+        <v>18.667000000000002</v>
       </c>
       <c r="V21">
-        <v>597.4</v>
+        <v>114.1</v>
       </c>
       <c r="W21">
-        <v>-60</v>
+        <v>-2.4</v>
       </c>
       <c r="X21">
-        <v>82.7</v>
+        <v>-99.2</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA21">
-        <v>302.39999999999998</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>270.5</v>
+        <v>109</v>
       </c>
       <c r="D22">
-        <v>1640.5</v>
+        <v>1267.0999999999999</v>
       </c>
       <c r="E22">
-        <v>714.7</v>
+        <v>969.52800000000002</v>
       </c>
       <c r="F22">
-        <v>759.4</v>
+        <v>384.2</v>
       </c>
       <c r="G22">
-        <v>3460.9</v>
+        <v>2996.7139999999999</v>
       </c>
       <c r="H22">
-        <v>16156.6</v>
+        <v>7702.5050000000001</v>
       </c>
       <c r="I22">
-        <v>420.9</v>
+        <v>485.72199999999998</v>
       </c>
       <c r="J22">
-        <v>6515</v>
+        <v>2591.739</v>
       </c>
       <c r="K22">
-        <v>31.1</v>
+        <v>127.745</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1920.8</v>
+        <v>1600.837</v>
       </c>
       <c r="O22">
-        <v>9559.9</v>
+        <v>4795.7839999999997</v>
       </c>
       <c r="P22">
-        <v>7416.6</v>
+        <v>2945.2049999999999</v>
       </c>
       <c r="Q22">
-        <v>161.6</v>
+        <v>7.8</v>
       </c>
       <c r="R22">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>6596.7</v>
+        <v>2906.721</v>
       </c>
       <c r="U22">
-        <v>491.3</v>
+        <v>26.373999999999999</v>
       </c>
       <c r="V22">
-        <v>288.5</v>
+        <v>108.2</v>
       </c>
       <c r="W22">
-        <v>-60.6</v>
+        <v>-2.5</v>
       </c>
       <c r="X22">
-        <v>92.9</v>
+        <v>-31.3</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="AA22">
-        <v>270.5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>243.4</v>
+        <v>58.2</v>
       </c>
       <c r="D23">
-        <v>1543.2</v>
+        <v>1047.9000000000001</v>
       </c>
       <c r="E23">
-        <v>732.5</v>
+        <v>771.9</v>
       </c>
       <c r="F23">
-        <v>665.3</v>
+        <v>299.8</v>
       </c>
       <c r="G23">
-        <v>2977.6</v>
+        <v>2700.9</v>
       </c>
       <c r="H23">
-        <v>16965</v>
+        <v>7400.6</v>
       </c>
       <c r="I23">
-        <v>429.3</v>
+        <v>312.8</v>
       </c>
       <c r="J23">
-        <v>6816.6</v>
+        <v>2515.8000000000002</v>
       </c>
       <c r="K23">
-        <v>408.3</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,120 +2635,120 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2272.3000000000002</v>
+        <v>1298.0999999999999</v>
       </c>
       <c r="O23">
-        <v>10273.200000000001</v>
+        <v>4425.3999999999996</v>
       </c>
       <c r="P23">
-        <v>8088.8</v>
+        <v>2809.8</v>
       </c>
       <c r="Q23">
-        <v>-408.2</v>
+        <v>-15.5</v>
       </c>
       <c r="R23">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="S23">
-        <v>9000</v>
+        <v>7900</v>
       </c>
       <c r="T23">
-        <v>6691.8</v>
+        <v>2975.2</v>
       </c>
       <c r="U23">
-        <v>83.1</v>
+        <v>10.9</v>
       </c>
       <c r="V23">
-        <v>322.10000000000002</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="W23">
-        <v>-61.2</v>
+        <v>-2.4</v>
       </c>
       <c r="X23">
-        <v>653.79999999999995</v>
+        <v>-128.69999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AA23">
-        <v>243.4</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>318.3</v>
+        <v>85.5</v>
       </c>
       <c r="D24">
-        <v>1871.8</v>
+        <v>1155.9000000000001</v>
       </c>
       <c r="E24">
-        <v>773.3</v>
+        <v>854.2</v>
       </c>
       <c r="F24">
-        <v>889.4</v>
+        <v>318.60000000000002</v>
       </c>
       <c r="G24">
-        <v>3218.5</v>
+        <v>2921.5</v>
       </c>
       <c r="H24">
-        <v>17630</v>
+        <v>7671.5</v>
       </c>
       <c r="I24">
-        <v>558.5</v>
+        <v>365</v>
       </c>
       <c r="J24">
-        <v>6691</v>
+        <v>2481.8000000000002</v>
       </c>
       <c r="K24">
-        <v>29.8</v>
+        <v>164.3</v>
       </c>
       <c r="L24">
-        <v>-379.1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>-94.2</v>
+        <v>-52.6</v>
       </c>
       <c r="N24">
-        <v>2698.7</v>
+        <v>1437.1</v>
       </c>
       <c r="O24">
-        <v>10641.4</v>
+        <v>4551.5</v>
       </c>
       <c r="P24">
-        <v>8315.4</v>
+        <v>2860.4</v>
       </c>
       <c r="Q24">
-        <v>84.2</v>
+        <v>26.6</v>
       </c>
       <c r="R24">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>6988.6</v>
+        <v>3120</v>
       </c>
       <c r="U24">
-        <v>167.3</v>
+        <v>37.5</v>
       </c>
       <c r="V24">
-        <v>345.9</v>
+        <v>5.6</v>
       </c>
       <c r="W24">
-        <v>-79.3</v>
+        <v>-2.5</v>
       </c>
       <c r="X24">
-        <v>191.9</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>318.3</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>358.9</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D25">
-        <v>2021.2</v>
+        <v>1417.5</v>
       </c>
       <c r="E25">
-        <v>831.1</v>
+        <v>1022.4</v>
       </c>
       <c r="F25">
-        <v>972.4</v>
+        <v>414.8</v>
       </c>
       <c r="G25">
-        <v>3169.8</v>
+        <v>3272.6</v>
       </c>
       <c r="H25">
-        <v>17717.400000000001</v>
+        <v>9448.7000000000007</v>
       </c>
       <c r="I25">
-        <v>624.5</v>
+        <v>420.3</v>
       </c>
       <c r="J25">
-        <v>7022.3</v>
+        <v>3987.7</v>
       </c>
       <c r="K25">
-        <v>114.3</v>
+        <v>313.3</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2199.6</v>
+        <v>1567.8</v>
       </c>
       <c r="O25">
-        <v>10543.3</v>
+        <v>6281.7</v>
       </c>
       <c r="P25">
-        <v>8033.5</v>
+        <v>4316.3999999999996</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="R25">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>7174.1</v>
+        <v>3167</v>
       </c>
       <c r="U25">
-        <v>177.3</v>
+        <v>42.2</v>
       </c>
       <c r="V25">
-        <v>699</v>
+        <v>75.8</v>
       </c>
       <c r="W25">
-        <v>-79.5</v>
+        <v>-2.4</v>
       </c>
       <c r="X25">
-        <v>-488.9</v>
+        <v>1038.5</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>358.9</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>405.9</v>
+        <v>107.8</v>
       </c>
       <c r="D26">
-        <v>1810.5</v>
+        <v>1500.8</v>
       </c>
       <c r="E26">
-        <v>856</v>
+        <v>1159.5999999999999</v>
       </c>
       <c r="F26">
-        <v>896.3</v>
+        <v>445.2</v>
       </c>
       <c r="G26">
-        <v>3444.8</v>
+        <v>3636.4</v>
       </c>
       <c r="H26">
-        <v>18320.099999999999</v>
+        <v>9845.2999999999993</v>
       </c>
       <c r="I26">
-        <v>772.3</v>
+        <v>543.4</v>
       </c>
       <c r="J26">
-        <v>7362.5</v>
+        <v>3949.4</v>
       </c>
       <c r="K26">
-        <v>353.4</v>
+        <v>316.8</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2636.6</v>
+        <v>1843.2</v>
       </c>
       <c r="O26">
-        <v>11322.4</v>
+        <v>6517.4</v>
       </c>
       <c r="P26">
-        <v>8632.2000000000007</v>
+        <v>4325.8999999999996</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>-7.5</v>
       </c>
       <c r="R26">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>6997.7</v>
+        <v>3327.9</v>
       </c>
       <c r="U26">
-        <v>197.3</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="V26">
-        <v>370.8</v>
+        <v>31.8</v>
       </c>
       <c r="W26">
-        <v>-79.5</v>
+        <v>-2.4</v>
       </c>
       <c r="X26">
-        <v>150.6</v>
+        <v>-9.5</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,42 +2923,42 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>405.9</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>452</v>
+        <v>70.2</v>
       </c>
       <c r="D27">
-        <v>1628</v>
+        <v>1142.2</v>
       </c>
       <c r="E27">
-        <v>737</v>
+        <v>881</v>
       </c>
       <c r="F27">
-        <v>791.4</v>
+        <v>385.8</v>
       </c>
       <c r="G27">
-        <v>3230</v>
+        <v>3023.3</v>
       </c>
       <c r="H27">
-        <v>18602.400000000001</v>
+        <v>9438.2000000000007</v>
       </c>
       <c r="I27">
-        <v>559.79999999999995</v>
+        <v>376.1</v>
       </c>
       <c r="J27">
-        <v>7720.7</v>
+        <v>3714.9</v>
       </c>
       <c r="K27">
-        <v>606.5</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,37 +2967,37 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2697.6</v>
+        <v>1591.1</v>
       </c>
       <c r="O27">
-        <v>11717.6</v>
+        <v>6020.7</v>
       </c>
       <c r="P27">
-        <v>9238.1</v>
+        <v>4185.5</v>
       </c>
       <c r="Q27">
-        <v>-19.899999999999999</v>
+        <v>-1.2</v>
       </c>
       <c r="R27">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="S27">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="T27">
-        <v>6884.8</v>
+        <v>3417.5</v>
       </c>
       <c r="U27">
-        <v>177.4</v>
+        <v>33.5</v>
       </c>
       <c r="V27">
-        <v>280.3</v>
+        <v>200</v>
       </c>
       <c r="W27">
-        <v>-76.8</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>11.6</v>
+        <v>-144</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,125 +3006,125 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>452</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>398.5</v>
+        <v>29.8</v>
       </c>
       <c r="D28">
-        <v>1928.5</v>
+        <v>901.2</v>
       </c>
       <c r="E28">
-        <v>832</v>
+        <v>763.9</v>
       </c>
       <c r="F28">
-        <v>995.3</v>
+        <v>273.3</v>
       </c>
       <c r="G28">
-        <v>3360.5</v>
+        <v>2909.3</v>
       </c>
       <c r="H28">
-        <v>18959.400000000001</v>
+        <v>9826.2000000000007</v>
       </c>
       <c r="I28">
-        <v>558.79999999999995</v>
+        <v>270.60000000000002</v>
       </c>
       <c r="J28">
-        <v>8077.2</v>
+        <v>4381.8</v>
       </c>
       <c r="K28">
-        <v>988.1</v>
+        <v>242.3</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-1913.4</v>
+        <v>-9</v>
       </c>
       <c r="N28">
-        <v>2182.4</v>
+        <v>1507.5</v>
       </c>
       <c r="O28">
-        <v>11561.6</v>
+        <v>6697.9</v>
       </c>
       <c r="P28">
-        <v>9211.6</v>
+        <v>4986.8999999999996</v>
       </c>
       <c r="Q28">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>7397.8</v>
+        <v>3128.3</v>
       </c>
       <c r="U28">
-        <v>199.1</v>
+        <v>33.5</v>
       </c>
       <c r="V28">
-        <v>381.6</v>
+        <v>-86.1</v>
       </c>
       <c r="W28">
-        <v>-100.5</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-141.6</v>
+        <v>303.7</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>185.6</v>
       </c>
       <c r="AA28">
-        <v>398.5</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>501.6</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="D29">
-        <v>2087.9</v>
+        <v>892.6</v>
       </c>
       <c r="E29">
-        <v>853.3</v>
+        <v>784.5</v>
       </c>
       <c r="F29">
-        <v>1071.5</v>
+        <v>314.10000000000002</v>
       </c>
       <c r="G29">
-        <v>3373.4</v>
+        <v>2887.4</v>
       </c>
       <c r="H29">
-        <v>19418.400000000001</v>
+        <v>9731.1</v>
       </c>
       <c r="I29">
-        <v>601.70000000000005</v>
+        <v>281.3</v>
       </c>
       <c r="J29">
-        <v>8036.9</v>
+        <v>4291.8</v>
       </c>
       <c r="K29">
-        <v>814</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2090</v>
+        <v>1452</v>
       </c>
       <c r="O29">
-        <v>11473.1</v>
+        <v>6542.3</v>
       </c>
       <c r="P29">
-        <v>8947.4</v>
+        <v>4749</v>
       </c>
       <c r="Q29">
-        <v>-73.5</v>
+        <v>-0.3</v>
       </c>
       <c r="R29">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>7945.3</v>
+        <v>3188.8</v>
       </c>
       <c r="U29">
-        <v>125.6</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="V29">
-        <v>721.3</v>
+        <v>263.8</v>
       </c>
       <c r="W29">
-        <v>-100.5</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-378.7</v>
+        <v>-236</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="AA29">
-        <v>501.6</v>
+        <v>72.099999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>492.8</v>
+        <v>119.6</v>
       </c>
       <c r="D30">
-        <v>1801.9</v>
+        <v>1094.8</v>
       </c>
       <c r="E30">
-        <v>779.5</v>
+        <v>938.5</v>
       </c>
       <c r="F30">
-        <v>917.5</v>
+        <v>397.3</v>
       </c>
       <c r="G30">
-        <v>3545.6</v>
+        <v>3147.5</v>
       </c>
       <c r="H30">
-        <v>20107.099999999999</v>
+        <v>10193.6</v>
       </c>
       <c r="I30">
-        <v>742.2</v>
+        <v>350.8</v>
       </c>
       <c r="J30">
-        <v>8114.2</v>
+        <v>4235.2</v>
       </c>
       <c r="K30">
-        <v>1212.8</v>
+        <v>101.7</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2535.9</v>
+        <v>1594.6</v>
       </c>
       <c r="O30">
-        <v>12098</v>
+        <v>6680.9</v>
       </c>
       <c r="P30">
-        <v>9350.2000000000007</v>
+        <v>4703.8</v>
       </c>
       <c r="Q30">
-        <v>28.9</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="R30">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>8009.1</v>
+        <v>3512.7</v>
       </c>
       <c r="U30">
-        <v>154.5</v>
+        <v>24.9</v>
       </c>
       <c r="V30">
-        <v>365.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="W30">
-        <v>-100.1</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>62.2</v>
+        <v>-51.8</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-191.3</v>
+        <v>-0.9</v>
       </c>
       <c r="AA30">
-        <v>492.8</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>910.5</v>
+        <v>-834.8</v>
       </c>
       <c r="D31">
-        <v>1762</v>
+        <v>884.4</v>
       </c>
       <c r="E31">
-        <v>776.2</v>
+        <v>731.6</v>
       </c>
       <c r="F31">
-        <v>866</v>
+        <v>330.4</v>
       </c>
       <c r="G31">
-        <v>3474</v>
+        <v>3199</v>
       </c>
       <c r="H31">
-        <v>20538.7</v>
+        <v>10052.799999999999</v>
       </c>
       <c r="I31">
-        <v>592.20000000000005</v>
+        <v>349.4</v>
       </c>
       <c r="J31">
-        <v>9417.6</v>
+        <v>4648.7</v>
       </c>
       <c r="K31">
-        <v>746.8</v>
+        <v>379.5</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,164 +3299,164 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2039.6</v>
+        <v>1718.3</v>
       </c>
       <c r="O31">
-        <v>12547</v>
+        <v>7286.9</v>
       </c>
       <c r="P31">
-        <v>10186.700000000001</v>
+        <v>5314.7</v>
       </c>
       <c r="Q31">
-        <v>-64.2</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="R31">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="S31">
-        <v>9600</v>
+        <v>8200</v>
       </c>
       <c r="T31">
-        <v>7991.7</v>
+        <v>2765.9</v>
       </c>
       <c r="U31">
-        <v>90.3</v>
+        <v>20.5</v>
       </c>
       <c r="V31">
-        <v>463</v>
+        <v>267.5</v>
       </c>
       <c r="W31">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-143.1</v>
+        <v>569</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-19.600000000000001</v>
+        <v>-3.1</v>
       </c>
       <c r="AA31">
-        <v>910.5</v>
+        <v>-834.8</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43251</v>
+        <v>39599</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>743.8</v>
+        <v>44.6</v>
       </c>
       <c r="D32">
-        <v>2047.1</v>
+        <v>931.8</v>
       </c>
       <c r="E32">
-        <v>827.9</v>
+        <v>791.1</v>
       </c>
       <c r="F32">
-        <v>1052.5999999999999</v>
+        <v>339.3</v>
       </c>
       <c r="G32">
-        <v>3604.8</v>
+        <v>3325.4</v>
       </c>
       <c r="H32">
-        <v>23096.7</v>
+        <v>10156.299999999999</v>
       </c>
       <c r="I32">
-        <v>650.29999999999995</v>
+        <v>370</v>
       </c>
       <c r="J32">
-        <v>9416.4</v>
+        <v>4575.1000000000004</v>
       </c>
       <c r="K32">
-        <v>669.7</v>
+        <v>464.9</v>
       </c>
       <c r="L32">
-        <v>-77.5</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>-5.9</v>
+        <v>-49.5</v>
       </c>
       <c r="N32">
-        <v>1990.5</v>
+        <v>1786.3</v>
       </c>
       <c r="O32">
-        <v>12530.9</v>
+        <v>7276.2</v>
       </c>
       <c r="P32">
-        <v>10107</v>
+        <v>5292.9</v>
       </c>
       <c r="Q32">
-        <v>119.7</v>
+        <v>4.7</v>
       </c>
       <c r="R32">
-        <v>43251</v>
+        <v>39599</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10565.8</v>
+        <v>2880.1</v>
       </c>
       <c r="U32">
-        <v>210</v>
+        <v>25.2</v>
       </c>
       <c r="V32">
-        <v>504</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="W32">
-        <v>-140.5</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-329.2</v>
+        <v>53.1</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>108.7</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>743.8</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43343</v>
+        <v>39691</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1149.5</v>
+        <v>-22.7</v>
       </c>
       <c r="D33">
-        <v>2299.1</v>
+        <v>956.5</v>
       </c>
       <c r="E33">
-        <v>951.2</v>
+        <v>775.9</v>
       </c>
       <c r="F33">
-        <v>1170.5999999999999</v>
+        <v>360</v>
       </c>
       <c r="G33">
-        <v>3585.5</v>
+        <v>3038.1</v>
       </c>
       <c r="H33">
-        <v>24097.5</v>
+        <v>9421.7999999999993</v>
       </c>
       <c r="I33">
-        <v>734.9</v>
+        <v>347.7</v>
       </c>
       <c r="J33">
-        <v>9187.6</v>
+        <v>4486.5</v>
       </c>
       <c r="K33">
-        <v>717.1</v>
+        <v>87</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2162.5</v>
+        <v>1341.1</v>
       </c>
       <c r="O33">
-        <v>12562.3</v>
+        <v>6746</v>
       </c>
       <c r="P33">
-        <v>9923.6</v>
+        <v>4837.8</v>
       </c>
       <c r="Q33">
-        <v>-3.9</v>
+        <v>-0.3</v>
       </c>
       <c r="R33">
-        <v>43343</v>
+        <v>39691</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>11535.2</v>
+        <v>2675.8</v>
       </c>
       <c r="U33">
-        <v>206.1</v>
+        <v>24.9</v>
       </c>
       <c r="V33">
-        <v>834.5</v>
+        <v>209.5</v>
       </c>
       <c r="W33">
-        <v>-138.6</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-503.7</v>
+        <v>-405.1</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-150.6</v>
+        <v>-0.6</v>
       </c>
       <c r="AA33">
-        <v>1149.5</v>
+        <v>-22.7</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43434</v>
+        <v>39782</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>303.10000000000002</v>
+        <v>83.5</v>
       </c>
       <c r="D34">
-        <v>1972.6</v>
+        <v>1031.2</v>
       </c>
       <c r="E34">
-        <v>837.2</v>
+        <v>813.4</v>
       </c>
       <c r="F34">
-        <v>973.7</v>
+        <v>412.4</v>
       </c>
       <c r="G34">
-        <v>3638.5</v>
+        <v>3145.4</v>
       </c>
       <c r="H34">
-        <v>27890.400000000001</v>
+        <v>9108.5</v>
       </c>
       <c r="I34">
-        <v>882.7</v>
+        <v>344.6</v>
       </c>
       <c r="J34">
-        <v>11772.5</v>
+        <v>4124.3999999999996</v>
       </c>
       <c r="K34">
-        <v>731.5</v>
+        <v>206</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3363.4</v>
+        <v>1728.4</v>
       </c>
       <c r="O34">
-        <v>16370.4</v>
+        <v>6766.8</v>
       </c>
       <c r="P34">
-        <v>13569.6</v>
+        <v>4782</v>
       </c>
       <c r="Q34">
-        <v>-75.5</v>
+        <v>156.4</v>
       </c>
       <c r="R34">
-        <v>43434</v>
+        <v>39782</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>11520</v>
+        <v>2341.6999999999998</v>
       </c>
       <c r="U34">
-        <v>130.6</v>
+        <v>181.3</v>
       </c>
       <c r="V34">
-        <v>635.4</v>
+        <v>154.1</v>
       </c>
       <c r="W34">
-        <v>-138.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>3494.2</v>
+        <v>24.8</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-3925.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA34">
-        <v>303.10000000000002</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43524</v>
+        <v>39872</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1239.5</v>
+        <v>-406.8</v>
       </c>
       <c r="D35">
-        <v>1797.2</v>
+        <v>735.1</v>
       </c>
       <c r="E35">
-        <v>846.9</v>
+        <v>524.6</v>
       </c>
       <c r="F35">
-        <v>906.5</v>
+        <v>245.5</v>
       </c>
       <c r="G35">
-        <v>3684</v>
+        <v>2534.5</v>
       </c>
       <c r="H35">
-        <v>29231.5</v>
+        <v>8036.5</v>
       </c>
       <c r="I35">
-        <v>616.70000000000005</v>
+        <v>288.7</v>
       </c>
       <c r="J35">
-        <v>11759.8</v>
+        <v>3971.1</v>
       </c>
       <c r="K35">
-        <v>791.5</v>
+        <v>227.3</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,164 +3631,164 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>3163.8</v>
+        <v>1326.4</v>
       </c>
       <c r="O35">
-        <v>16394.3</v>
+        <v>6128.2</v>
       </c>
       <c r="P35">
-        <v>13616.5</v>
+        <v>4484.7</v>
       </c>
       <c r="Q35">
-        <v>-37</v>
+        <v>-168.2</v>
       </c>
       <c r="R35">
-        <v>43524</v>
+        <v>39872</v>
       </c>
       <c r="S35">
-        <v>9800</v>
+        <v>6600</v>
       </c>
       <c r="T35">
-        <v>12837.2</v>
+        <v>1908.3</v>
       </c>
       <c r="U35">
-        <v>93.6</v>
+        <v>13.1</v>
       </c>
       <c r="V35">
-        <v>272.39999999999998</v>
+        <v>176</v>
       </c>
       <c r="W35">
-        <v>-139.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-68</v>
+        <v>-320.2</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-4.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AA35">
-        <v>1239.5</v>
+        <v>-406.8</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43616</v>
+        <v>39964</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>-245.4</v>
+        <v>6.5</v>
       </c>
       <c r="D36">
-        <v>2097.1999999999998</v>
+        <v>791.6</v>
       </c>
       <c r="E36">
-        <v>788.3</v>
+        <v>715.9</v>
       </c>
       <c r="F36">
-        <v>1077.0999999999999</v>
+        <v>276.2</v>
       </c>
       <c r="G36">
-        <v>3580.9</v>
+        <v>2766.7</v>
       </c>
       <c r="H36">
-        <v>28951.1</v>
+        <v>8401.5</v>
       </c>
       <c r="I36">
-        <v>579.1</v>
+        <v>276.2</v>
       </c>
       <c r="J36">
-        <v>11732.8</v>
+        <v>3712.1</v>
       </c>
       <c r="K36">
-        <v>586.4</v>
+        <v>353.5</v>
       </c>
       <c r="L36">
-        <v>-205</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>-22.9</v>
+        <v>-269.5</v>
       </c>
       <c r="N36">
-        <v>2939.3</v>
+        <v>1555.7</v>
       </c>
       <c r="O36">
-        <v>16462.900000000001</v>
+        <v>6076.3</v>
       </c>
       <c r="P36">
-        <v>14000.2</v>
+        <v>4321.8</v>
       </c>
       <c r="Q36">
-        <v>5.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="R36">
-        <v>43616</v>
+        <v>39964</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>12488.2</v>
+        <v>2325.1999999999998</v>
       </c>
       <c r="U36">
-        <v>98.7</v>
+        <v>16.8</v>
       </c>
       <c r="V36">
-        <v>593.1</v>
+        <v>-54.8</v>
       </c>
       <c r="W36">
-        <v>-143</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-374.4</v>
+        <v>-166.3</v>
       </c>
       <c r="Y36">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-20</v>
+        <v>-0.3</v>
       </c>
       <c r="AA36">
-        <v>-245.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43708</v>
+        <v>40056</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-525.20000000000005</v>
+        <v>99.7</v>
       </c>
       <c r="D37">
-        <v>2344</v>
+        <v>876.8</v>
       </c>
       <c r="E37">
-        <v>953.7</v>
+        <v>787.3</v>
       </c>
       <c r="F37">
-        <v>1206.5</v>
+        <v>325.10000000000002</v>
       </c>
       <c r="G37">
-        <v>3537.5</v>
+        <v>2818.6</v>
       </c>
       <c r="H37">
-        <v>27555.1</v>
+        <v>8433.9</v>
       </c>
       <c r="I37">
-        <v>608.6</v>
+        <v>298.5</v>
       </c>
       <c r="J37">
-        <v>12146.5</v>
+        <v>3690.8</v>
       </c>
       <c r="K37">
-        <v>150.9</v>
+        <v>195.9</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2195.9</v>
+        <v>1428.8</v>
       </c>
       <c r="O37">
-        <v>15864.1</v>
+        <v>5918.6</v>
       </c>
       <c r="P37">
-        <v>13536.2</v>
+        <v>4208.7</v>
       </c>
       <c r="Q37">
-        <v>-17.399999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="R37">
-        <v>43708</v>
+        <v>40056</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>11691</v>
+        <v>2515.3000000000002</v>
       </c>
       <c r="U37">
-        <v>81.3</v>
+        <v>19.7</v>
       </c>
       <c r="V37">
-        <v>826.3</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="W37">
-        <v>-142</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-630.6</v>
+        <v>-151.80000000000001</v>
       </c>
       <c r="Y37">
-        <v>525.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-13</v>
+        <v>-0.2</v>
       </c>
       <c r="AA37">
-        <v>-525.20000000000005</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43799</v>
+        <v>40147</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>360.4</v>
+        <v>44.1</v>
       </c>
       <c r="D38">
-        <v>1999.4</v>
+        <v>987.7</v>
       </c>
       <c r="E38">
-        <v>808.3</v>
+        <v>901.7</v>
       </c>
       <c r="F38">
-        <v>1051.3</v>
+        <v>349.3</v>
       </c>
       <c r="G38">
-        <v>3469.9</v>
+        <v>3093.6</v>
       </c>
       <c r="H38">
-        <v>27093.7</v>
+        <v>8728.6</v>
       </c>
       <c r="I38">
-        <v>676.5</v>
+        <v>376.7</v>
       </c>
       <c r="J38">
-        <v>11325.4</v>
+        <v>3616</v>
       </c>
       <c r="K38">
-        <v>281.5</v>
+        <v>381.7</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2460.1999999999998</v>
+        <v>1576.4</v>
       </c>
       <c r="O38">
-        <v>15057.4</v>
+        <v>6031.4</v>
       </c>
       <c r="P38">
-        <v>12937.9</v>
+        <v>4127.3999999999996</v>
       </c>
       <c r="Q38">
-        <v>12.4</v>
+        <v>30.6</v>
       </c>
       <c r="R38">
-        <v>43799</v>
+        <v>40147</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>12036.3</v>
+        <v>2697.2</v>
       </c>
       <c r="U38">
-        <v>93.7</v>
+        <v>50.3</v>
       </c>
       <c r="V38">
-        <v>656.9</v>
+        <v>91.3</v>
       </c>
       <c r="W38">
-        <v>-142</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-735.2</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="Y38">
-        <v>517.6</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AA38">
-        <v>360.4</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43890</v>
+        <v>40237</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>398.4</v>
+        <v>-51</v>
       </c>
       <c r="D39">
-        <v>1902.9</v>
+        <v>708.7</v>
       </c>
       <c r="E39">
-        <v>864.8</v>
+        <v>514.70000000000005</v>
       </c>
       <c r="F39">
-        <v>950.6</v>
+        <v>226.6</v>
       </c>
       <c r="G39">
-        <v>3484.1</v>
+        <v>2589.1</v>
       </c>
       <c r="H39">
-        <v>27323.200000000001</v>
+        <v>8094.3</v>
       </c>
       <c r="I39">
-        <v>557.6</v>
+        <v>268.8</v>
       </c>
       <c r="J39">
-        <v>11197.2</v>
+        <v>3277.1</v>
       </c>
       <c r="K39">
-        <v>238.9</v>
+        <v>371.2</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,164 +3963,164 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2311.8000000000002</v>
+        <v>1372.6</v>
       </c>
       <c r="O39">
-        <v>14848.9</v>
+        <v>5518</v>
       </c>
       <c r="P39">
-        <v>12745.6</v>
+        <v>3850.2</v>
       </c>
       <c r="Q39">
-        <v>-12.3</v>
+        <v>-6.8</v>
       </c>
       <c r="R39">
-        <v>43890</v>
+        <v>40237</v>
       </c>
       <c r="S39">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="T39">
-        <v>12474.3</v>
+        <v>2576.3000000000002</v>
       </c>
       <c r="U39">
-        <v>81.400000000000006</v>
+        <v>43.5</v>
       </c>
       <c r="V39">
-        <v>474.8</v>
+        <v>213.8</v>
       </c>
       <c r="W39">
-        <v>-142.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-291.2</v>
+        <v>-266.10000000000002</v>
       </c>
       <c r="Y39">
-        <v>497.2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-13</v>
+        <v>-0.3</v>
       </c>
       <c r="AA39">
-        <v>398.4</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>40329</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-177.9</v>
+        <v>49.1</v>
       </c>
       <c r="D40">
-        <v>1963.4</v>
+        <v>787.5</v>
       </c>
       <c r="E40">
-        <v>700.5</v>
+        <v>636.5</v>
       </c>
       <c r="F40">
-        <v>1017.2</v>
+        <v>272</v>
       </c>
       <c r="G40">
-        <v>3396.2</v>
+        <v>2562</v>
       </c>
       <c r="H40">
-        <v>26149.8</v>
+        <v>7896.1</v>
       </c>
       <c r="I40">
-        <v>505.5</v>
+        <v>224.8</v>
       </c>
       <c r="J40">
-        <v>11628</v>
+        <v>3201</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>564.70000000000005</v>
       </c>
       <c r="L40">
-        <v>-238.9</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-959.5</v>
+        <v>-1.3</v>
       </c>
       <c r="N40">
-        <v>1752.4</v>
+        <v>1534.2</v>
       </c>
       <c r="O40">
-        <v>14772.2</v>
+        <v>5598.7</v>
       </c>
       <c r="P40">
-        <v>12174.6</v>
+        <v>4017.8</v>
       </c>
       <c r="Q40">
-        <v>221.4</v>
+        <v>-22.6</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>40329</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>11377.6</v>
+        <v>2297.4</v>
       </c>
       <c r="U40">
-        <v>302.8</v>
+        <v>20.9</v>
       </c>
       <c r="V40">
-        <v>686.5</v>
+        <v>60.1</v>
       </c>
       <c r="W40">
-        <v>-143.9</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-169</v>
+        <v>-86</v>
       </c>
       <c r="Y40">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-213.4</v>
+        <v>-29.6</v>
       </c>
       <c r="AA40">
-        <v>-177.9</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>512.1</v>
+        <v>91.3</v>
       </c>
       <c r="D41">
-        <v>2260.4</v>
+        <v>862.8</v>
       </c>
       <c r="E41">
-        <v>926.3</v>
+        <v>720.7</v>
       </c>
       <c r="F41">
-        <v>1217.5999999999999</v>
+        <v>314.89999999999998</v>
       </c>
       <c r="G41">
-        <v>3537.2</v>
+        <v>2560</v>
       </c>
       <c r="H41">
-        <v>26462.5</v>
+        <v>7877.1</v>
       </c>
       <c r="I41">
-        <v>651.20000000000005</v>
+        <v>253.5</v>
       </c>
       <c r="J41">
-        <v>11057.8</v>
+        <v>3147.4</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1909.9</v>
+        <v>1449.7</v>
       </c>
       <c r="O41">
-        <v>14458.7</v>
+        <v>5447.2</v>
       </c>
       <c r="P41">
-        <v>11600.6</v>
+        <v>3803.1</v>
       </c>
       <c r="Q41">
-        <v>-98.2</v>
+        <v>-7</v>
       </c>
       <c r="R41">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>12003.8</v>
+        <v>2429.9</v>
       </c>
       <c r="U41">
-        <v>204.6</v>
+        <v>13.9</v>
       </c>
       <c r="V41">
-        <v>758.4</v>
+        <v>246</v>
       </c>
       <c r="W41">
-        <v>-143.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-703.1</v>
+        <v>-238.4</v>
       </c>
       <c r="Y41">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-4</v>
+        <v>-0.1</v>
       </c>
       <c r="AA41">
-        <v>512.1</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="D42">
+        <v>966.4</v>
+      </c>
+      <c r="E42">
+        <v>868.9</v>
+      </c>
+      <c r="F42">
+        <v>353</v>
+      </c>
+      <c r="G42">
+        <v>2844.8</v>
+      </c>
+      <c r="H42">
+        <v>8257.7999999999993</v>
+      </c>
+      <c r="I42">
+        <v>334.8</v>
+      </c>
+      <c r="J42">
+        <v>3150.1</v>
+      </c>
+      <c r="K42">
+        <v>355.8</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1515.3</v>
+      </c>
+      <c r="O42">
+        <v>5538.8</v>
+      </c>
+      <c r="P42">
+        <v>3743.7</v>
+      </c>
+      <c r="Q42">
+        <v>2.1</v>
+      </c>
+      <c r="R42">
+        <v>40512</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2719</v>
+      </c>
+      <c r="U42">
+        <v>16</v>
+      </c>
+      <c r="V42">
+        <v>63.3</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-49</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>279.8</v>
+      </c>
+      <c r="D43">
+        <v>715.3</v>
+      </c>
+      <c r="E43">
+        <v>417.4</v>
+      </c>
+      <c r="F43">
+        <v>254.9</v>
+      </c>
+      <c r="G43">
+        <v>2083</v>
+      </c>
+      <c r="H43">
+        <v>7167.6</v>
+      </c>
+      <c r="I43">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="J43">
+        <v>3136.7</v>
+      </c>
+      <c r="K43">
+        <v>83.7</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>662.9</v>
+      </c>
+      <c r="O43">
+        <v>4615.7</v>
+      </c>
+      <c r="P43">
+        <v>3242.4</v>
+      </c>
+      <c r="Q43">
+        <v>-6.8</v>
+      </c>
+      <c r="R43">
+        <v>40602</v>
+      </c>
+      <c r="S43">
+        <v>4300</v>
+      </c>
+      <c r="T43">
+        <v>2551.9</v>
+      </c>
+      <c r="U43">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="V43">
+        <v>250.3</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-472.7</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>279.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>74.5</v>
+      </c>
+      <c r="D44">
+        <v>635.29999999999995</v>
+      </c>
+      <c r="E44">
+        <v>459.3</v>
+      </c>
+      <c r="F44">
+        <v>251.2</v>
+      </c>
+      <c r="G44">
+        <v>1956.1</v>
+      </c>
+      <c r="H44">
+        <v>7075.4</v>
+      </c>
+      <c r="I44">
+        <v>104.8</v>
+      </c>
+      <c r="J44">
+        <v>2728.9</v>
+      </c>
+      <c r="K44">
+        <v>252.7</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-417.3</v>
+      </c>
+      <c r="N44">
+        <v>783.4</v>
+      </c>
+      <c r="O44">
+        <v>4360.3</v>
+      </c>
+      <c r="P44">
+        <v>3001.6</v>
+      </c>
+      <c r="Q44">
+        <v>4.2</v>
+      </c>
+      <c r="R44">
+        <v>40694</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2715.1</v>
+      </c>
+      <c r="U44">
+        <v>13.4</v>
+      </c>
+      <c r="V44">
+        <v>241.3</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-204.6</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="D45">
+        <v>690.2</v>
+      </c>
+      <c r="E45">
+        <v>501.7</v>
+      </c>
+      <c r="F45">
+        <v>283.10000000000002</v>
+      </c>
+      <c r="G45">
+        <v>1919.6</v>
+      </c>
+      <c r="H45">
+        <v>7034.7</v>
+      </c>
+      <c r="I45">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="J45">
+        <v>2763.6</v>
+      </c>
+      <c r="K45">
+        <v>198</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>786.8</v>
+      </c>
+      <c r="O45">
+        <v>4335.6000000000004</v>
+      </c>
+      <c r="P45">
+        <v>2987.9</v>
+      </c>
+      <c r="Q45">
+        <v>-3.4</v>
+      </c>
+      <c r="R45">
+        <v>40786</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2699.1</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
+      </c>
+      <c r="V45">
+        <v>276.10000000000002</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-239.7</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>162.69999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>104.8</v>
+      </c>
+      <c r="D46">
+        <v>700.7</v>
+      </c>
+      <c r="E46">
+        <v>569.20000000000005</v>
+      </c>
+      <c r="F46">
+        <v>283.7</v>
+      </c>
+      <c r="G46">
+        <v>2178.5</v>
+      </c>
+      <c r="H46">
+        <v>7225.2</v>
+      </c>
+      <c r="I46">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="J46">
+        <v>2608.1</v>
+      </c>
+      <c r="K46">
+        <v>352.3</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1178.2</v>
+      </c>
+      <c r="O46">
+        <v>4587.2</v>
+      </c>
+      <c r="P46">
+        <v>3147.4</v>
+      </c>
+      <c r="Q46">
+        <v>45.8</v>
+      </c>
+      <c r="R46">
+        <v>40877</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2638</v>
+      </c>
+      <c r="U46">
+        <v>55.8</v>
+      </c>
+      <c r="V46">
+        <v>123.4</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-30.7</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>20.2</v>
+      </c>
+      <c r="AA46">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>103</v>
+      </c>
+      <c r="D47">
+        <v>628.1</v>
+      </c>
+      <c r="E47">
+        <v>437.6</v>
+      </c>
+      <c r="F47">
+        <v>246</v>
+      </c>
+      <c r="G47">
+        <v>2034.3</v>
+      </c>
+      <c r="H47">
+        <v>7109.9</v>
+      </c>
+      <c r="I47">
+        <v>130.5</v>
+      </c>
+      <c r="J47">
+        <v>2452.1</v>
+      </c>
+      <c r="K47">
+        <v>377.9</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1199.5999999999999</v>
+      </c>
+      <c r="O47">
+        <v>4433.8999999999996</v>
+      </c>
+      <c r="P47">
+        <v>3175.2</v>
+      </c>
+      <c r="Q47">
+        <v>30</v>
+      </c>
+      <c r="R47">
+        <v>40968</v>
+      </c>
+      <c r="S47">
+        <v>4400</v>
+      </c>
+      <c r="T47">
+        <v>2676</v>
+      </c>
+      <c r="U47">
+        <v>85.8</v>
+      </c>
+      <c r="V47">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-100.1</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-0.1</v>
+      </c>
+      <c r="AA47">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>72</v>
+      </c>
+      <c r="D48">
+        <v>634.79999999999995</v>
+      </c>
+      <c r="E48">
+        <v>457.8</v>
+      </c>
+      <c r="F48">
+        <v>251.4</v>
+      </c>
+      <c r="G48">
+        <v>1971.4</v>
+      </c>
+      <c r="H48">
+        <v>7008.2</v>
+      </c>
+      <c r="I48">
+        <v>117.2</v>
+      </c>
+      <c r="J48">
+        <v>3316.8</v>
+      </c>
+      <c r="K48">
+        <v>97.9</v>
+      </c>
+      <c r="L48">
+        <v>-274.39999999999998</v>
+      </c>
+      <c r="M48">
+        <v>-832.2</v>
+      </c>
+      <c r="N48">
+        <v>587.9</v>
+      </c>
+      <c r="O48">
+        <v>4708.3999999999996</v>
+      </c>
+      <c r="P48">
+        <v>3470.5</v>
+      </c>
+      <c r="Q48">
+        <v>-16.7</v>
+      </c>
+      <c r="R48">
+        <v>41060</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2299.8000000000002</v>
+      </c>
+      <c r="U48">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="V48">
+        <v>96.4</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-97.9</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>124.6</v>
+      </c>
+      <c r="D49">
+        <v>698.5</v>
+      </c>
+      <c r="E49">
+        <v>487.1</v>
+      </c>
+      <c r="F49">
+        <v>286.60000000000002</v>
+      </c>
+      <c r="G49">
+        <v>2177.9</v>
+      </c>
+      <c r="H49">
+        <v>8040.5</v>
+      </c>
+      <c r="I49">
+        <v>185.6</v>
+      </c>
+      <c r="J49">
+        <v>3966.9</v>
+      </c>
+      <c r="K49">
+        <v>15.2</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>656</v>
+      </c>
+      <c r="O49">
+        <v>5422.4</v>
+      </c>
+      <c r="P49">
+        <v>4045.2</v>
+      </c>
+      <c r="Q49">
+        <v>109.4</v>
+      </c>
+      <c r="R49">
+        <v>41152</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2618.1</v>
+      </c>
+      <c r="U49">
+        <v>178.5</v>
+      </c>
+      <c r="V49">
+        <v>272.10000000000002</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>109.5</v>
+      </c>
+      <c r="D50">
+        <v>766.9</v>
+      </c>
+      <c r="E50">
+        <v>539.1</v>
+      </c>
+      <c r="F50">
+        <v>314.2</v>
+      </c>
+      <c r="G50">
+        <v>2480.6</v>
+      </c>
+      <c r="H50">
+        <v>8322.7000000000007</v>
+      </c>
+      <c r="I50">
+        <v>300.39999999999998</v>
+      </c>
+      <c r="J50">
+        <v>3965.3</v>
+      </c>
+      <c r="K50">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>787.8</v>
+      </c>
+      <c r="O50">
+        <v>5547.4</v>
+      </c>
+      <c r="P50">
+        <v>4051.3</v>
+      </c>
+      <c r="Q50">
+        <v>22</v>
+      </c>
+      <c r="R50">
+        <v>41243</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2775.3</v>
+      </c>
+      <c r="U50">
+        <v>200.5</v>
+      </c>
+      <c r="V50">
+        <v>20.5</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>81.7</v>
+      </c>
+      <c r="D51">
+        <v>695.9</v>
+      </c>
+      <c r="E51">
+        <v>471.9</v>
+      </c>
+      <c r="F51">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="G51">
+        <v>2471.1999999999998</v>
+      </c>
+      <c r="H51">
+        <v>7638.1</v>
+      </c>
+      <c r="I51">
+        <v>209</v>
+      </c>
+      <c r="J51">
+        <v>3308.5</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>677.9</v>
+      </c>
+      <c r="O51">
+        <v>4777.8</v>
+      </c>
+      <c r="P51">
+        <v>3352.5</v>
+      </c>
+      <c r="Q51">
+        <v>131</v>
+      </c>
+      <c r="R51">
+        <v>41333</v>
+      </c>
+      <c r="S51">
+        <v>4500</v>
+      </c>
+      <c r="T51">
+        <v>2860.3</v>
+      </c>
+      <c r="U51">
+        <v>331.5</v>
+      </c>
+      <c r="V51">
+        <v>167.3</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-26.7</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>52.9</v>
+      </c>
+      <c r="D52">
+        <v>673.4</v>
+      </c>
+      <c r="E52">
+        <v>453.8</v>
+      </c>
+      <c r="F52">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="G52">
+        <v>2723.3</v>
+      </c>
+      <c r="H52">
+        <v>9452.4</v>
+      </c>
+      <c r="I52">
+        <v>150</v>
+      </c>
+      <c r="J52">
+        <v>4840.5</v>
+      </c>
+      <c r="K52">
+        <v>221</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="N52">
+        <v>797.2</v>
+      </c>
+      <c r="O52">
+        <v>6455</v>
+      </c>
+      <c r="P52">
+        <v>5114.5</v>
+      </c>
+      <c r="Q52">
+        <v>277.8</v>
+      </c>
+      <c r="R52">
+        <v>41425</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2997.4</v>
+      </c>
+      <c r="U52">
+        <v>609.29999999999995</v>
+      </c>
+      <c r="V52">
+        <v>3.3</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>295.5</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1522</v>
+      </c>
+      <c r="D53">
+        <v>1459.8</v>
+      </c>
+      <c r="E53">
+        <v>655.9</v>
+      </c>
+      <c r="F53">
+        <v>588.6</v>
+      </c>
+      <c r="G53">
+        <v>2670.1</v>
+      </c>
+      <c r="H53">
+        <v>14122.8</v>
+      </c>
+      <c r="I53">
+        <v>341.2</v>
+      </c>
+      <c r="J53">
+        <v>6932.1</v>
+      </c>
+      <c r="K53">
+        <v>272.10000000000002</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1810.6</v>
+      </c>
+      <c r="O53">
+        <v>9612.4</v>
+      </c>
+      <c r="P53">
+        <v>7339.7</v>
+      </c>
+      <c r="Q53">
+        <v>-492.5</v>
+      </c>
+      <c r="R53">
+        <v>41517</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4510.3999999999996</v>
+      </c>
+      <c r="U53">
+        <v>116.8</v>
+      </c>
+      <c r="V53">
+        <v>485.7</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>3725.3</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>211</v>
+      </c>
+      <c r="D54">
+        <v>1443.3</v>
+      </c>
+      <c r="E54">
+        <v>668.8</v>
+      </c>
+      <c r="F54">
+        <v>611.9</v>
+      </c>
+      <c r="G54">
+        <v>2835.4</v>
+      </c>
+      <c r="H54">
+        <v>14336.3</v>
+      </c>
+      <c r="I54">
+        <v>462.4</v>
+      </c>
+      <c r="J54">
+        <v>6917.9</v>
+      </c>
+      <c r="K54">
+        <v>170.5</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1755</v>
+      </c>
+      <c r="O54">
+        <v>9546.5</v>
+      </c>
+      <c r="P54">
+        <v>7175.7</v>
+      </c>
+      <c r="Q54">
+        <v>-51.6</v>
+      </c>
+      <c r="R54">
+        <v>41608</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>4789.8</v>
+      </c>
+      <c r="U54">
+        <v>65.2</v>
+      </c>
+      <c r="V54">
+        <v>140.1</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-155.69999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="D55">
+        <v>1291.2</v>
+      </c>
+      <c r="E55">
+        <v>626.20000000000005</v>
+      </c>
+      <c r="F55">
+        <v>549.6</v>
+      </c>
+      <c r="G55">
+        <v>2747.2</v>
+      </c>
+      <c r="H55">
+        <v>14302.1</v>
+      </c>
+      <c r="I55">
+        <v>295.2</v>
+      </c>
+      <c r="J55">
+        <v>6389.5</v>
+      </c>
+      <c r="K55">
+        <v>57.2</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2025.7</v>
+      </c>
+      <c r="O55">
+        <v>9320.7999999999993</v>
+      </c>
+      <c r="P55">
+        <v>7053.4</v>
+      </c>
+      <c r="Q55">
+        <v>-1.3</v>
+      </c>
+      <c r="R55">
+        <v>41698</v>
+      </c>
+      <c r="S55">
+        <v>6300</v>
+      </c>
+      <c r="T55">
+        <v>4981.3</v>
+      </c>
+      <c r="U55">
+        <v>63.9</v>
+      </c>
+      <c r="V55">
+        <v>197.1</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-88.1</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>157.19999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>206.7</v>
+      </c>
+      <c r="D56">
+        <v>1526</v>
+      </c>
+      <c r="E56">
+        <v>651.29999999999995</v>
+      </c>
+      <c r="F56">
+        <v>678</v>
+      </c>
+      <c r="G56">
+        <v>3137.2</v>
+      </c>
+      <c r="H56">
+        <v>14842.4</v>
+      </c>
+      <c r="I56">
+        <v>345.7</v>
+      </c>
+      <c r="J56">
+        <v>6358.9</v>
+      </c>
+      <c r="K56">
+        <v>235.2</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-4.8</v>
+      </c>
+      <c r="N56">
+        <v>2254.6999999999998</v>
+      </c>
+      <c r="O56">
+        <v>9555.4</v>
+      </c>
+      <c r="P56">
+        <v>7208.5</v>
+      </c>
+      <c r="Q56">
+        <v>314.10000000000002</v>
+      </c>
+      <c r="R56">
+        <v>41790</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5287</v>
+      </c>
+      <c r="U56">
+        <v>378</v>
+      </c>
+      <c r="V56">
+        <v>232.3</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>213.1</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>206.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>195.8</v>
+      </c>
+      <c r="D57">
+        <v>1604.1</v>
+      </c>
+      <c r="E57">
+        <v>656.9</v>
+      </c>
+      <c r="F57">
+        <v>694.3</v>
+      </c>
+      <c r="G57">
+        <v>2838.1</v>
+      </c>
+      <c r="H57">
+        <v>14657.4</v>
+      </c>
+      <c r="I57">
+        <v>441.9</v>
+      </c>
+      <c r="J57">
+        <v>6333</v>
+      </c>
+      <c r="K57">
+        <v>253</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1876.3</v>
+      </c>
+      <c r="O57">
+        <v>9170</v>
+      </c>
+      <c r="P57">
+        <v>7201.7</v>
+      </c>
+      <c r="Q57">
+        <v>-273.7</v>
+      </c>
+      <c r="R57">
+        <v>41882</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>5487.4</v>
+      </c>
+      <c r="U57">
+        <v>104.3</v>
+      </c>
+      <c r="V57">
+        <v>435.8</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-538.1</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>195.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>222.2</v>
+      </c>
+      <c r="D58">
+        <v>1541.7</v>
+      </c>
+      <c r="E58">
+        <v>701.3</v>
+      </c>
+      <c r="F58">
+        <v>670.6</v>
+      </c>
+      <c r="G58">
+        <v>3030.8</v>
+      </c>
+      <c r="H58">
+        <v>14980.5</v>
+      </c>
+      <c r="I58">
+        <v>445.9</v>
+      </c>
+      <c r="J58">
+        <v>7089.1</v>
+      </c>
+      <c r="K58">
+        <v>100.3</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1248.5</v>
+      </c>
+      <c r="O58">
+        <v>9345.5</v>
+      </c>
+      <c r="P58">
+        <v>7326.4</v>
+      </c>
+      <c r="Q58">
+        <v>-37</v>
+      </c>
+      <c r="R58">
+        <v>41973</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5635</v>
+      </c>
+      <c r="U58">
+        <v>67.3</v>
+      </c>
+      <c r="V58">
+        <v>82</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>135.5</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>214.6</v>
+      </c>
+      <c r="D59">
+        <v>1356.2</v>
+      </c>
+      <c r="E59">
+        <v>598.9</v>
+      </c>
+      <c r="F59">
+        <v>535.70000000000005</v>
+      </c>
+      <c r="G59">
+        <v>2910.8</v>
+      </c>
+      <c r="H59">
+        <v>15093</v>
+      </c>
+      <c r="I59">
+        <v>285.8</v>
+      </c>
+      <c r="J59">
+        <v>7090.9</v>
+      </c>
+      <c r="K59">
+        <v>52.4</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1130.7</v>
+      </c>
+      <c r="O59">
+        <v>9211.7000000000007</v>
+      </c>
+      <c r="P59">
+        <v>7319.7</v>
+      </c>
+      <c r="Q59">
+        <v>42.8</v>
+      </c>
+      <c r="R59">
+        <v>42063</v>
+      </c>
+      <c r="S59">
+        <v>7200</v>
+      </c>
+      <c r="T59">
+        <v>5881.3</v>
+      </c>
+      <c r="U59">
+        <v>110.1</v>
+      </c>
+      <c r="V59">
+        <v>330.9</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>173.1</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>214.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>238.6</v>
+      </c>
+      <c r="D60">
+        <v>1631.3</v>
+      </c>
+      <c r="E60">
+        <v>696.2</v>
+      </c>
+      <c r="F60">
+        <v>745.7</v>
+      </c>
+      <c r="G60">
+        <v>2979.3</v>
+      </c>
+      <c r="H60">
+        <v>15247.3</v>
+      </c>
+      <c r="I60">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="J60">
+        <v>7040.8</v>
+      </c>
+      <c r="K60">
+        <v>100.9</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-79.400000000000006</v>
+      </c>
+      <c r="N60">
+        <v>1120.3</v>
+      </c>
+      <c r="O60">
+        <v>9195.4</v>
+      </c>
+      <c r="P60">
+        <v>7338.6</v>
+      </c>
+      <c r="Q60">
+        <v>20.6</v>
+      </c>
+      <c r="R60">
+        <v>42155</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>6051.9</v>
+      </c>
+      <c r="U60">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="V60">
+        <v>205.7</v>
+      </c>
+      <c r="W60">
+        <v>-59.8</v>
+      </c>
+      <c r="X60">
+        <v>-53.4</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>238.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="D61">
+        <v>1733.4</v>
+      </c>
+      <c r="E61">
+        <v>723.5</v>
+      </c>
+      <c r="F61">
+        <v>790.3</v>
+      </c>
+      <c r="G61">
+        <v>3131.5</v>
+      </c>
+      <c r="H61">
+        <v>15673.4</v>
+      </c>
+      <c r="I61">
+        <v>373.3</v>
+      </c>
+      <c r="J61">
+        <v>7238.2</v>
+      </c>
+      <c r="K61">
+        <v>29.3</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1212.2</v>
+      </c>
+      <c r="O61">
+        <v>9508.4</v>
+      </c>
+      <c r="P61">
+        <v>7441.3</v>
+      </c>
+      <c r="Q61">
+        <v>199</v>
+      </c>
+      <c r="R61">
+        <v>42247</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>6165</v>
+      </c>
+      <c r="U61">
+        <v>329.7</v>
+      </c>
+      <c r="V61">
+        <v>597.4</v>
+      </c>
+      <c r="W61">
+        <v>-60</v>
+      </c>
+      <c r="X61">
+        <v>82.7</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>302.39999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>270.5</v>
+      </c>
+      <c r="D62">
+        <v>1640.5</v>
+      </c>
+      <c r="E62">
+        <v>714.7</v>
+      </c>
+      <c r="F62">
+        <v>759.4</v>
+      </c>
+      <c r="G62">
+        <v>3460.9</v>
+      </c>
+      <c r="H62">
+        <v>16156.6</v>
+      </c>
+      <c r="I62">
+        <v>420.9</v>
+      </c>
+      <c r="J62">
+        <v>6515</v>
+      </c>
+      <c r="K62">
+        <v>31.1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1920.8</v>
+      </c>
+      <c r="O62">
+        <v>9559.9</v>
+      </c>
+      <c r="P62">
+        <v>7416.6</v>
+      </c>
+      <c r="Q62">
+        <v>161.6</v>
+      </c>
+      <c r="R62">
+        <v>42338</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>6596.7</v>
+      </c>
+      <c r="U62">
+        <v>491.3</v>
+      </c>
+      <c r="V62">
+        <v>288.5</v>
+      </c>
+      <c r="W62">
+        <v>-60.6</v>
+      </c>
+      <c r="X62">
+        <v>92.9</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>270.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>243.4</v>
+      </c>
+      <c r="D63">
+        <v>1543.2</v>
+      </c>
+      <c r="E63">
+        <v>732.5</v>
+      </c>
+      <c r="F63">
+        <v>665.3</v>
+      </c>
+      <c r="G63">
+        <v>2977.6</v>
+      </c>
+      <c r="H63">
+        <v>16965</v>
+      </c>
+      <c r="I63">
+        <v>429.3</v>
+      </c>
+      <c r="J63">
+        <v>6816.6</v>
+      </c>
+      <c r="K63">
+        <v>408.3</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2272.3000000000002</v>
+      </c>
+      <c r="O63">
+        <v>10273.200000000001</v>
+      </c>
+      <c r="P63">
+        <v>8088.8</v>
+      </c>
+      <c r="Q63">
+        <v>-408.2</v>
+      </c>
+      <c r="R63">
+        <v>42429</v>
+      </c>
+      <c r="S63">
+        <v>9000</v>
+      </c>
+      <c r="T63">
+        <v>6691.8</v>
+      </c>
+      <c r="U63">
+        <v>83.1</v>
+      </c>
+      <c r="V63">
+        <v>322.10000000000002</v>
+      </c>
+      <c r="W63">
+        <v>-61.2</v>
+      </c>
+      <c r="X63">
+        <v>653.79999999999995</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>243.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>318.3</v>
+      </c>
+      <c r="D64">
+        <v>1871.8</v>
+      </c>
+      <c r="E64">
+        <v>773.3</v>
+      </c>
+      <c r="F64">
+        <v>889.4</v>
+      </c>
+      <c r="G64">
+        <v>3218.5</v>
+      </c>
+      <c r="H64">
+        <v>17630</v>
+      </c>
+      <c r="I64">
+        <v>558.5</v>
+      </c>
+      <c r="J64">
+        <v>6691</v>
+      </c>
+      <c r="K64">
+        <v>29.8</v>
+      </c>
+      <c r="L64">
+        <v>-379.1</v>
+      </c>
+      <c r="M64">
+        <v>-94.2</v>
+      </c>
+      <c r="N64">
+        <v>2698.7</v>
+      </c>
+      <c r="O64">
+        <v>10641.4</v>
+      </c>
+      <c r="P64">
+        <v>8315.4</v>
+      </c>
+      <c r="Q64">
+        <v>84.2</v>
+      </c>
+      <c r="R64">
+        <v>42521</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>6988.6</v>
+      </c>
+      <c r="U64">
+        <v>167.3</v>
+      </c>
+      <c r="V64">
+        <v>345.9</v>
+      </c>
+      <c r="W64">
+        <v>-79.3</v>
+      </c>
+      <c r="X64">
+        <v>191.9</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>318.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>358.9</v>
+      </c>
+      <c r="D65">
+        <v>2021.2</v>
+      </c>
+      <c r="E65">
+        <v>831.1</v>
+      </c>
+      <c r="F65">
+        <v>972.4</v>
+      </c>
+      <c r="G65">
+        <v>3169.8</v>
+      </c>
+      <c r="H65">
+        <v>17717.400000000001</v>
+      </c>
+      <c r="I65">
+        <v>624.5</v>
+      </c>
+      <c r="J65">
+        <v>7022.3</v>
+      </c>
+      <c r="K65">
+        <v>114.3</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2199.6</v>
+      </c>
+      <c r="O65">
+        <v>10543.3</v>
+      </c>
+      <c r="P65">
+        <v>8033.5</v>
+      </c>
+      <c r="Q65">
+        <v>10</v>
+      </c>
+      <c r="R65">
+        <v>42613</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>7174.1</v>
+      </c>
+      <c r="U65">
+        <v>177.3</v>
+      </c>
+      <c r="V65">
+        <v>699</v>
+      </c>
+      <c r="W65">
+        <v>-79.5</v>
+      </c>
+      <c r="X65">
+        <v>-488.9</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>358.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>405.9</v>
+      </c>
+      <c r="D66">
+        <v>1810.5</v>
+      </c>
+      <c r="E66">
+        <v>856</v>
+      </c>
+      <c r="F66">
+        <v>896.3</v>
+      </c>
+      <c r="G66">
+        <v>3444.8</v>
+      </c>
+      <c r="H66">
+        <v>18320.099999999999</v>
+      </c>
+      <c r="I66">
+        <v>772.3</v>
+      </c>
+      <c r="J66">
+        <v>7362.5</v>
+      </c>
+      <c r="K66">
+        <v>353.4</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2636.6</v>
+      </c>
+      <c r="O66">
+        <v>11322.4</v>
+      </c>
+      <c r="P66">
+        <v>8632.2000000000007</v>
+      </c>
+      <c r="Q66">
+        <v>20</v>
+      </c>
+      <c r="R66">
+        <v>42704</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>6997.7</v>
+      </c>
+      <c r="U66">
+        <v>197.3</v>
+      </c>
+      <c r="V66">
+        <v>370.8</v>
+      </c>
+      <c r="W66">
+        <v>-79.5</v>
+      </c>
+      <c r="X66">
+        <v>150.6</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>405.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>452</v>
+      </c>
+      <c r="D67">
+        <v>1628</v>
+      </c>
+      <c r="E67">
+        <v>737</v>
+      </c>
+      <c r="F67">
+        <v>791.4</v>
+      </c>
+      <c r="G67">
+        <v>3230</v>
+      </c>
+      <c r="H67">
+        <v>18602.400000000001</v>
+      </c>
+      <c r="I67">
+        <v>559.79999999999995</v>
+      </c>
+      <c r="J67">
+        <v>7720.7</v>
+      </c>
+      <c r="K67">
+        <v>606.5</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2697.6</v>
+      </c>
+      <c r="O67">
+        <v>11717.6</v>
+      </c>
+      <c r="P67">
+        <v>9238.1</v>
+      </c>
+      <c r="Q67">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="R67">
+        <v>42794</v>
+      </c>
+      <c r="S67">
+        <v>8700</v>
+      </c>
+      <c r="T67">
+        <v>6884.8</v>
+      </c>
+      <c r="U67">
+        <v>177.4</v>
+      </c>
+      <c r="V67">
+        <v>280.3</v>
+      </c>
+      <c r="W67">
+        <v>-76.8</v>
+      </c>
+      <c r="X67">
+        <v>11.6</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>398.5</v>
+      </c>
+      <c r="D68">
+        <v>1928.5</v>
+      </c>
+      <c r="E68">
+        <v>832</v>
+      </c>
+      <c r="F68">
+        <v>995.3</v>
+      </c>
+      <c r="G68">
+        <v>3360.5</v>
+      </c>
+      <c r="H68">
+        <v>18959.400000000001</v>
+      </c>
+      <c r="I68">
+        <v>558.79999999999995</v>
+      </c>
+      <c r="J68">
+        <v>8077.2</v>
+      </c>
+      <c r="K68">
+        <v>988.1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-1913.4</v>
+      </c>
+      <c r="N68">
+        <v>2182.4</v>
+      </c>
+      <c r="O68">
+        <v>11561.6</v>
+      </c>
+      <c r="P68">
+        <v>9211.6</v>
+      </c>
+      <c r="Q68">
+        <v>21.7</v>
+      </c>
+      <c r="R68">
+        <v>42886</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>7397.8</v>
+      </c>
+      <c r="U68">
+        <v>199.1</v>
+      </c>
+      <c r="V68">
+        <v>381.6</v>
+      </c>
+      <c r="W68">
+        <v>-100.5</v>
+      </c>
+      <c r="X68">
+        <v>-141.6</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>398.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>501.6</v>
+      </c>
+      <c r="D69">
+        <v>2087.9</v>
+      </c>
+      <c r="E69">
+        <v>853.3</v>
+      </c>
+      <c r="F69">
+        <v>1071.5</v>
+      </c>
+      <c r="G69">
+        <v>3373.4</v>
+      </c>
+      <c r="H69">
+        <v>19418.400000000001</v>
+      </c>
+      <c r="I69">
+        <v>601.70000000000005</v>
+      </c>
+      <c r="J69">
+        <v>8036.9</v>
+      </c>
+      <c r="K69">
+        <v>814</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2090</v>
+      </c>
+      <c r="O69">
+        <v>11473.1</v>
+      </c>
+      <c r="P69">
+        <v>8947.4</v>
+      </c>
+      <c r="Q69">
+        <v>-73.5</v>
+      </c>
+      <c r="R69">
+        <v>42978</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>7945.3</v>
+      </c>
+      <c r="U69">
+        <v>125.6</v>
+      </c>
+      <c r="V69">
+        <v>721.3</v>
+      </c>
+      <c r="W69">
+        <v>-100.5</v>
+      </c>
+      <c r="X69">
+        <v>-378.7</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>501.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>492.8</v>
+      </c>
+      <c r="D70">
+        <v>1801.9</v>
+      </c>
+      <c r="E70">
+        <v>779.5</v>
+      </c>
+      <c r="F70">
+        <v>917.5</v>
+      </c>
+      <c r="G70">
+        <v>3545.6</v>
+      </c>
+      <c r="H70">
+        <v>20107.099999999999</v>
+      </c>
+      <c r="I70">
+        <v>742.2</v>
+      </c>
+      <c r="J70">
+        <v>8114.2</v>
+      </c>
+      <c r="K70">
+        <v>1212.8</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2535.9</v>
+      </c>
+      <c r="O70">
+        <v>12098</v>
+      </c>
+      <c r="P70">
+        <v>9350.2000000000007</v>
+      </c>
+      <c r="Q70">
+        <v>28.9</v>
+      </c>
+      <c r="R70">
+        <v>43069</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>8009.1</v>
+      </c>
+      <c r="U70">
+        <v>154.5</v>
+      </c>
+      <c r="V70">
+        <v>365.5</v>
+      </c>
+      <c r="W70">
+        <v>-100.1</v>
+      </c>
+      <c r="X70">
+        <v>62.2</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-191.3</v>
+      </c>
+      <c r="AA70">
+        <v>492.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>910.5</v>
+      </c>
+      <c r="D71">
+        <v>1762</v>
+      </c>
+      <c r="E71">
+        <v>776.2</v>
+      </c>
+      <c r="F71">
+        <v>866</v>
+      </c>
+      <c r="G71">
+        <v>3474</v>
+      </c>
+      <c r="H71">
+        <v>20538.7</v>
+      </c>
+      <c r="I71">
+        <v>592.20000000000005</v>
+      </c>
+      <c r="J71">
+        <v>9417.6</v>
+      </c>
+      <c r="K71">
+        <v>746.8</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2039.6</v>
+      </c>
+      <c r="O71">
+        <v>12547</v>
+      </c>
+      <c r="P71">
+        <v>10186.700000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-64.2</v>
+      </c>
+      <c r="R71">
+        <v>43159</v>
+      </c>
+      <c r="S71">
+        <v>9600</v>
+      </c>
+      <c r="T71">
+        <v>7991.7</v>
+      </c>
+      <c r="U71">
+        <v>90.3</v>
+      </c>
+      <c r="V71">
+        <v>463</v>
+      </c>
+      <c r="W71">
+        <v>-99</v>
+      </c>
+      <c r="X71">
+        <v>-143.1</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AA71">
+        <v>910.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>743.8</v>
+      </c>
+      <c r="D72">
+        <v>2047.1</v>
+      </c>
+      <c r="E72">
+        <v>827.9</v>
+      </c>
+      <c r="F72">
+        <v>1052.5999999999999</v>
+      </c>
+      <c r="G72">
+        <v>3604.8</v>
+      </c>
+      <c r="H72">
+        <v>23096.7</v>
+      </c>
+      <c r="I72">
+        <v>650.29999999999995</v>
+      </c>
+      <c r="J72">
+        <v>9416.4</v>
+      </c>
+      <c r="K72">
+        <v>669.7</v>
+      </c>
+      <c r="L72">
+        <v>-77.5</v>
+      </c>
+      <c r="M72">
+        <v>-5.9</v>
+      </c>
+      <c r="N72">
+        <v>1990.5</v>
+      </c>
+      <c r="O72">
+        <v>12530.9</v>
+      </c>
+      <c r="P72">
+        <v>10107</v>
+      </c>
+      <c r="Q72">
+        <v>119.7</v>
+      </c>
+      <c r="R72">
+        <v>43251</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>10565.8</v>
+      </c>
+      <c r="U72">
+        <v>210</v>
+      </c>
+      <c r="V72">
+        <v>504</v>
+      </c>
+      <c r="W72">
+        <v>-140.5</v>
+      </c>
+      <c r="X72">
+        <v>-329.2</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>108.7</v>
+      </c>
+      <c r="AA72">
+        <v>743.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1149.5</v>
+      </c>
+      <c r="D73">
+        <v>2299.1</v>
+      </c>
+      <c r="E73">
+        <v>951.2</v>
+      </c>
+      <c r="F73">
+        <v>1170.5999999999999</v>
+      </c>
+      <c r="G73">
+        <v>3585.5</v>
+      </c>
+      <c r="H73">
+        <v>24097.5</v>
+      </c>
+      <c r="I73">
+        <v>734.9</v>
+      </c>
+      <c r="J73">
+        <v>9187.6</v>
+      </c>
+      <c r="K73">
+        <v>717.1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2162.5</v>
+      </c>
+      <c r="O73">
+        <v>12562.3</v>
+      </c>
+      <c r="P73">
+        <v>9923.6</v>
+      </c>
+      <c r="Q73">
+        <v>-3.9</v>
+      </c>
+      <c r="R73">
+        <v>43343</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>11535.2</v>
+      </c>
+      <c r="U73">
+        <v>206.1</v>
+      </c>
+      <c r="V73">
+        <v>834.5</v>
+      </c>
+      <c r="W73">
+        <v>-138.6</v>
+      </c>
+      <c r="X73">
+        <v>-503.7</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-150.6</v>
+      </c>
+      <c r="AA73">
+        <v>1149.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>303.10000000000002</v>
+      </c>
+      <c r="D74">
+        <v>1972.6</v>
+      </c>
+      <c r="E74">
+        <v>837.2</v>
+      </c>
+      <c r="F74">
+        <v>973.7</v>
+      </c>
+      <c r="G74">
+        <v>3638.5</v>
+      </c>
+      <c r="H74">
+        <v>27890.400000000001</v>
+      </c>
+      <c r="I74">
+        <v>882.7</v>
+      </c>
+      <c r="J74">
+        <v>11772.5</v>
+      </c>
+      <c r="K74">
+        <v>731.5</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3363.4</v>
+      </c>
+      <c r="O74">
+        <v>16370.4</v>
+      </c>
+      <c r="P74">
+        <v>13569.6</v>
+      </c>
+      <c r="Q74">
+        <v>-75.5</v>
+      </c>
+      <c r="R74">
+        <v>43434</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>11520</v>
+      </c>
+      <c r="U74">
+        <v>130.6</v>
+      </c>
+      <c r="V74">
+        <v>635.4</v>
+      </c>
+      <c r="W74">
+        <v>-138.80000000000001</v>
+      </c>
+      <c r="X74">
+        <v>3494.2</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-3925.2</v>
+      </c>
+      <c r="AA74">
+        <v>303.10000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1239.5</v>
+      </c>
+      <c r="D75">
+        <v>1797.2</v>
+      </c>
+      <c r="E75">
+        <v>846.9</v>
+      </c>
+      <c r="F75">
+        <v>906.5</v>
+      </c>
+      <c r="G75">
+        <v>3684</v>
+      </c>
+      <c r="H75">
+        <v>29231.5</v>
+      </c>
+      <c r="I75">
+        <v>616.70000000000005</v>
+      </c>
+      <c r="J75">
+        <v>11759.8</v>
+      </c>
+      <c r="K75">
+        <v>791.5</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3163.8</v>
+      </c>
+      <c r="O75">
+        <v>16394.3</v>
+      </c>
+      <c r="P75">
+        <v>13616.5</v>
+      </c>
+      <c r="Q75">
+        <v>-37</v>
+      </c>
+      <c r="R75">
+        <v>43524</v>
+      </c>
+      <c r="S75">
+        <v>9800</v>
+      </c>
+      <c r="T75">
+        <v>12837.2</v>
+      </c>
+      <c r="U75">
+        <v>93.6</v>
+      </c>
+      <c r="V75">
+        <v>272.39999999999998</v>
+      </c>
+      <c r="W75">
+        <v>-139.80000000000001</v>
+      </c>
+      <c r="X75">
+        <v>-68</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-4.2</v>
+      </c>
+      <c r="AA75">
+        <v>1239.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>-245.4</v>
+      </c>
+      <c r="D76">
+        <v>2097.1999999999998</v>
+      </c>
+      <c r="E76">
+        <v>788.3</v>
+      </c>
+      <c r="F76">
+        <v>1077.0999999999999</v>
+      </c>
+      <c r="G76">
+        <v>3580.9</v>
+      </c>
+      <c r="H76">
+        <v>28951.1</v>
+      </c>
+      <c r="I76">
+        <v>579.1</v>
+      </c>
+      <c r="J76">
+        <v>11732.8</v>
+      </c>
+      <c r="K76">
+        <v>586.4</v>
+      </c>
+      <c r="L76">
+        <v>-205</v>
+      </c>
+      <c r="M76">
+        <v>-22.9</v>
+      </c>
+      <c r="N76">
+        <v>2939.3</v>
+      </c>
+      <c r="O76">
+        <v>16462.900000000001</v>
+      </c>
+      <c r="P76">
+        <v>14000.2</v>
+      </c>
+      <c r="Q76">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R76">
+        <v>43616</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>12488.2</v>
+      </c>
+      <c r="U76">
+        <v>98.7</v>
+      </c>
+      <c r="V76">
+        <v>593.1</v>
+      </c>
+      <c r="W76">
+        <v>-143</v>
+      </c>
+      <c r="X76">
+        <v>-374.4</v>
+      </c>
+      <c r="Y76">
+        <v>540</v>
+      </c>
+      <c r="Z76">
+        <v>-20</v>
+      </c>
+      <c r="AA76">
+        <v>-245.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-525.20000000000005</v>
+      </c>
+      <c r="D77">
+        <v>2344</v>
+      </c>
+      <c r="E77">
+        <v>953.7</v>
+      </c>
+      <c r="F77">
+        <v>1206.5</v>
+      </c>
+      <c r="G77">
+        <v>3537.5</v>
+      </c>
+      <c r="H77">
+        <v>27555.1</v>
+      </c>
+      <c r="I77">
+        <v>608.6</v>
+      </c>
+      <c r="J77">
+        <v>12146.5</v>
+      </c>
+      <c r="K77">
+        <v>150.9</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2195.9</v>
+      </c>
+      <c r="O77">
+        <v>15864.1</v>
+      </c>
+      <c r="P77">
+        <v>13536.2</v>
+      </c>
+      <c r="Q77">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="R77">
+        <v>43708</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>11691</v>
+      </c>
+      <c r="U77">
+        <v>81.3</v>
+      </c>
+      <c r="V77">
+        <v>826.3</v>
+      </c>
+      <c r="W77">
+        <v>-142</v>
+      </c>
+      <c r="X77">
+        <v>-630.6</v>
+      </c>
+      <c r="Y77">
+        <v>525.20000000000005</v>
+      </c>
+      <c r="Z77">
+        <v>-13</v>
+      </c>
+      <c r="AA77">
+        <v>-525.20000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>360.4</v>
+      </c>
+      <c r="D78">
+        <v>1999.4</v>
+      </c>
+      <c r="E78">
+        <v>808.3</v>
+      </c>
+      <c r="F78">
+        <v>1051.3</v>
+      </c>
+      <c r="G78">
+        <v>3469.9</v>
+      </c>
+      <c r="H78">
+        <v>27093.7</v>
+      </c>
+      <c r="I78">
+        <v>676.5</v>
+      </c>
+      <c r="J78">
+        <v>11325.4</v>
+      </c>
+      <c r="K78">
+        <v>281.5</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2460.1999999999998</v>
+      </c>
+      <c r="O78">
+        <v>15057.4</v>
+      </c>
+      <c r="P78">
+        <v>12937.9</v>
+      </c>
+      <c r="Q78">
+        <v>12.4</v>
+      </c>
+      <c r="R78">
+        <v>43799</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>12036.3</v>
+      </c>
+      <c r="U78">
+        <v>93.7</v>
+      </c>
+      <c r="V78">
+        <v>656.9</v>
+      </c>
+      <c r="W78">
+        <v>-142</v>
+      </c>
+      <c r="X78">
+        <v>-735.2</v>
+      </c>
+      <c r="Y78">
+        <v>517.6</v>
+      </c>
+      <c r="Z78">
+        <v>-0.7</v>
+      </c>
+      <c r="AA78">
+        <v>360.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>398.4</v>
+      </c>
+      <c r="D79">
+        <v>1902.9</v>
+      </c>
+      <c r="E79">
+        <v>864.8</v>
+      </c>
+      <c r="F79">
+        <v>950.6</v>
+      </c>
+      <c r="G79">
+        <v>3484.1</v>
+      </c>
+      <c r="H79">
+        <v>27323.200000000001</v>
+      </c>
+      <c r="I79">
+        <v>557.6</v>
+      </c>
+      <c r="J79">
+        <v>11197.2</v>
+      </c>
+      <c r="K79">
+        <v>238.9</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2311.8000000000002</v>
+      </c>
+      <c r="O79">
+        <v>14848.9</v>
+      </c>
+      <c r="P79">
+        <v>12745.6</v>
+      </c>
+      <c r="Q79">
+        <v>-12.3</v>
+      </c>
+      <c r="R79">
+        <v>43890</v>
+      </c>
+      <c r="S79">
+        <v>9000</v>
+      </c>
+      <c r="T79">
+        <v>12474.3</v>
+      </c>
+      <c r="U79">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="V79">
+        <v>474.8</v>
+      </c>
+      <c r="W79">
+        <v>-142.19999999999999</v>
+      </c>
+      <c r="X79">
+        <v>-291.2</v>
+      </c>
+      <c r="Y79">
+        <v>497.2</v>
+      </c>
+      <c r="Z79">
+        <v>-13</v>
+      </c>
+      <c r="AA79">
+        <v>398.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-177.9</v>
+      </c>
+      <c r="D80">
+        <v>1963.4</v>
+      </c>
+      <c r="E80">
+        <v>700.5</v>
+      </c>
+      <c r="F80">
+        <v>1017.2</v>
+      </c>
+      <c r="G80">
+        <v>3396.2</v>
+      </c>
+      <c r="H80">
+        <v>26149.8</v>
+      </c>
+      <c r="I80">
+        <v>505.5</v>
+      </c>
+      <c r="J80">
+        <v>11628</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>-238.9</v>
+      </c>
+      <c r="M80">
+        <v>-959.5</v>
+      </c>
+      <c r="N80">
+        <v>1752.4</v>
+      </c>
+      <c r="O80">
+        <v>14772.2</v>
+      </c>
+      <c r="P80">
+        <v>12174.6</v>
+      </c>
+      <c r="Q80">
+        <v>221.4</v>
+      </c>
+      <c r="R80">
+        <v>43982</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>11377.6</v>
+      </c>
+      <c r="U80">
+        <v>302.8</v>
+      </c>
+      <c r="V80">
+        <v>686.5</v>
+      </c>
+      <c r="W80">
+        <v>-143.9</v>
+      </c>
+      <c r="X80">
+        <v>-169</v>
+      </c>
+      <c r="Y80">
+        <v>11.3</v>
+      </c>
+      <c r="Z80">
+        <v>-213.4</v>
+      </c>
+      <c r="AA80">
+        <v>-177.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>512.1</v>
+      </c>
+      <c r="D81">
+        <v>2260.4</v>
+      </c>
+      <c r="E81">
+        <v>926.3</v>
+      </c>
+      <c r="F81">
+        <v>1217.5999999999999</v>
+      </c>
+      <c r="G81">
+        <v>3537.2</v>
+      </c>
+      <c r="H81">
+        <v>26462.5</v>
+      </c>
+      <c r="I81">
+        <v>651.20000000000005</v>
+      </c>
+      <c r="J81">
+        <v>11057.8</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1909.9</v>
+      </c>
+      <c r="O81">
+        <v>14458.7</v>
+      </c>
+      <c r="P81">
+        <v>11600.6</v>
+      </c>
+      <c r="Q81">
+        <v>-98.2</v>
+      </c>
+      <c r="R81">
+        <v>44074</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>12003.8</v>
+      </c>
+      <c r="U81">
+        <v>204.6</v>
+      </c>
+      <c r="V81">
+        <v>758.4</v>
+      </c>
+      <c r="W81">
+        <v>-143.69999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-703.1</v>
+      </c>
+      <c r="Y81">
+        <v>9</v>
+      </c>
+      <c r="Z81">
+        <v>-4</v>
+      </c>
+      <c r="AA81">
+        <v>512.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>1280.9000000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2438.1</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>915.4</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1316.2</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3447.1</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>27630.6</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>732.1</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>10405.799999999999</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>40</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2041.4</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>13978.1</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>10984.5</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-51.7</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44165</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>13652.5</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>152.9</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>918.7</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-143.6</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-782.6</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>10.3</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>1280.9000000000001</v>
       </c>
     </row>
